--- a/images/TABELE I WYKRESY.xlsx
+++ b/images/TABELE I WYKRESY.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ED620C-693C-FD4A-9D14-24967D4424EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF863F2-71AF-402D-94C0-3A27DE10D2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="29" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -2219,16 +2219,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2246,7 +2245,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2374,7 +2373,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2430,7 +2429,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2663,7 +2662,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2719,7 +2718,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2775,7 +2774,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2831,7 +2830,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3946,7 +3945,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4026,74 +4025,6 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4133,7 +4064,63 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4189,7 +4176,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4206,11 +4193,11 @@
       <c:pivotFmt>
         <c:idx val="7"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4245,7 +4232,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4472,28 +4459,16 @@
       <c:pivotFmt>
         <c:idx val="22"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4523,7 +4498,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4549,19 +4524,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4591,7 +4554,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4608,236 +4571,6 @@
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lossless!$B$6:$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>avif - Średnia z SSIM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>lossless!$A$9:$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lossless!$B$9:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.94666423333333338</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.94666423333333338</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94666423333333338</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.94666423333333338</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.94666423333333338</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.94666423333333338</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94666423333333338</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.94666423333333338</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.94666423333333338</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.94666423333333338</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8073-5E4F-8969-B7DA06AD4DB4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lossless!$D$6:$D$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>png - Średnia z SSIM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>lossless!$A$9:$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lossless!$D$9:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-8073-5E4F-8969-B7DA06AD4DB4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="153"/>
-        <c:axId val="330567360"/>
-        <c:axId val="316843408"/>
-      </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -4949,21 +4682,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="153"/>
-        <c:axId val="553061216"/>
-        <c:axId val="553049392"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
@@ -4979,17 +4697,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>lossless!$A$9:$A$19</c:f>
@@ -5067,10 +4783,348 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-8073-5E4F-8969-B7DA06AD4DB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lossless!$G$6:$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>webp - Średnia z Rozmiar pliku (bytes)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>lossless!$A$9:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lossless!$G$9:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>3639044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3639044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3639044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3639044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3639044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3639044</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3639044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3639044</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3639044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-8073-5E4F-8969-B7DA06AD4DB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="330567360"/>
+        <c:axId val="316843408"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lossless!$B$6:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avif - Średnia z SSIM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>lossless!$A$9:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lossless!$B$9:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.94666423333333338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94666423333333338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94666423333333338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94666423333333338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94666423333333338</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94666423333333338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94666423333333338</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94666423333333338</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94666423333333338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94666423333333338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-8073-5E4F-8969-B7DA06AD4DB4}"/>
+              <c16:uniqueId val="{00000000-8073-5E4F-8969-B7DA06AD4DB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lossless!$D$6:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>png - Średnia z SSIM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>lossless!$A$9:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lossless!$D$9:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-8073-5E4F-8969-B7DA06AD4DB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5181,113 +5235,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lossless!$G$6:$G$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>webp - Średnia z Rozmiar pliku (bytes)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>lossless!$A$9:$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lossless!$G$9:$G$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="1">
-                  <c:v>3639044</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3639044</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3639044</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3639044</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3639044</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3639044</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3639044</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3639044</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3639044</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-8073-5E4F-8969-B7DA06AD4DB4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5298,8 +5245,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="330567360"/>
-        <c:axId val="316843408"/>
+        <c:axId val="867198032"/>
+        <c:axId val="867203312"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="330567360"/>
@@ -5409,7 +5356,7 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="553049392"/>
+        <c:axId val="867203312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5443,15 +5390,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553061216"/>
+        <c:crossAx val="867198032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="553061216"/>
+        <c:axId val="867198032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5461,7 +5408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="553049392"/>
+        <c:crossAx val="867203312"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -6748,7 +6695,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="45738.497379282409" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="675" xr:uid="{91751B46-95C2-4870-8CF1-E10647333563}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Author" refreshedDate="45738.497379282409" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="675" xr:uid="{91751B46-95C2-4870-8CF1-E10647333563}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:L676" sheet="Files"/>
   </cacheSource>
@@ -16296,7 +16243,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2DE39CE3-8D86-42CB-8145-28EFD8E23B3C}" name="PivotTable1" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2DE39CE3-8D86-42CB-8145-28EFD8E23B3C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22">
   <location ref="A7:I19" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -16552,7 +16499,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6FA09750-9DB6-0B46-9CB3-A642697F66D1}" name="Tabela przestawna1" cacheId="29" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6FA09750-9DB6-0B46-9CB3-A642697F66D1}" name="Tabela przestawna1" cacheId="0" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A6:I19" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -17308,9 +17255,9 @@
   <sheetViews>
     <sheetView zoomScale="96" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
@@ -17318,7 +17265,7 @@
     <col min="11" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17356,7 +17303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -17394,7 +17341,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -17432,7 +17379,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -17470,7 +17417,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -17508,7 +17455,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -17546,7 +17493,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -17584,7 +17531,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -17622,7 +17569,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -17660,7 +17607,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -17698,7 +17645,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -17736,7 +17683,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -17774,7 +17721,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -17812,7 +17759,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -17850,7 +17797,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -17888,7 +17835,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -17926,7 +17873,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -17964,7 +17911,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -18002,7 +17949,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -18040,7 +17987,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -18078,7 +18025,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -18116,7 +18063,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -18154,7 +18101,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -18192,7 +18139,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -18230,7 +18177,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -18268,7 +18215,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -18306,7 +18253,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -18344,7 +18291,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -18382,7 +18329,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -18420,7 +18367,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -18458,7 +18405,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -18496,7 +18443,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -18534,7 +18481,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -18572,7 +18519,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -18610,7 +18557,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -18648,7 +18595,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -18686,7 +18633,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -18724,7 +18671,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -18762,7 +18709,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -18800,7 +18747,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -18838,7 +18785,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -18876,7 +18823,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -18914,7 +18861,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -18952,7 +18899,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -18990,7 +18937,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -19028,7 +18975,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -19066,7 +19013,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -19104,7 +19051,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -19142,7 +19089,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -19180,7 +19127,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -19218,7 +19165,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -19256,7 +19203,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -19294,7 +19241,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -19332,7 +19279,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -19370,7 +19317,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -19408,7 +19355,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>78</v>
       </c>
@@ -19446,7 +19393,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -19484,7 +19431,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>80</v>
       </c>
@@ -19522,7 +19469,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>81</v>
       </c>
@@ -19560,7 +19507,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -19598,7 +19545,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>83</v>
       </c>
@@ -19636,7 +19583,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>84</v>
       </c>
@@ -19674,7 +19621,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -19712,7 +19659,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -19750,7 +19697,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>89</v>
       </c>
@@ -19788,7 +19735,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>90</v>
       </c>
@@ -19826,7 +19773,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>91</v>
       </c>
@@ -19864,7 +19811,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>92</v>
       </c>
@@ -19902,7 +19849,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>93</v>
       </c>
@@ -19940,7 +19887,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -19978,7 +19925,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>95</v>
       </c>
@@ -20016,7 +19963,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>96</v>
       </c>
@@ -20054,7 +20001,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>98</v>
       </c>
@@ -20092,7 +20039,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>99</v>
       </c>
@@ -20130,7 +20077,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>100</v>
       </c>
@@ -20168,7 +20115,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>101</v>
       </c>
@@ -20206,7 +20153,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>102</v>
       </c>
@@ -20244,7 +20191,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -20282,7 +20229,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>104</v>
       </c>
@@ -20320,7 +20267,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>105</v>
       </c>
@@ -20358,7 +20305,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -20396,7 +20343,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>107</v>
       </c>
@@ -20434,7 +20381,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>109</v>
       </c>
@@ -20472,7 +20419,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>110</v>
       </c>
@@ -20510,7 +20457,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>111</v>
       </c>
@@ -20548,7 +20495,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>112</v>
       </c>
@@ -20586,7 +20533,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -20624,7 +20571,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>114</v>
       </c>
@@ -20662,7 +20609,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -20700,7 +20647,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>116</v>
       </c>
@@ -20738,7 +20685,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -20776,7 +20723,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>118</v>
       </c>
@@ -20814,7 +20761,7 @@
         <v>0.60483365099999997</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>120</v>
       </c>
@@ -20852,7 +20799,7 @@
         <v>0.71489915699999995</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>121</v>
       </c>
@@ -20890,7 +20837,7 @@
         <v>0.80048468500000003</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>122</v>
       </c>
@@ -20928,7 +20875,7 @@
         <v>0.87261131599999997</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>123</v>
       </c>
@@ -20966,7 +20913,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>124</v>
       </c>
@@ -21004,7 +20951,7 @@
         <v>0.95828490799999999</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>125</v>
       </c>
@@ -21042,7 +20989,7 @@
         <v>0.97306663999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>126</v>
       </c>
@@ -21080,7 +21027,7 @@
         <v>0.98344294200000004</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>127</v>
       </c>
@@ -21118,7 +21065,7 @@
         <v>0.99302958900000005</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>128</v>
       </c>
@@ -21156,7 +21103,7 @@
         <v>0.71470529999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>129</v>
       </c>
@@ -21194,7 +21141,7 @@
         <v>0.73587247700000002</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>130</v>
       </c>
@@ -21232,7 +21179,7 @@
         <v>0.77049951500000002</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>131</v>
       </c>
@@ -21270,7 +21217,7 @@
         <v>0.82743926400000001</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>132</v>
       </c>
@@ -21308,7 +21255,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>133</v>
       </c>
@@ -21346,7 +21293,7 @@
         <v>0.93465705099999996</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>134</v>
       </c>
@@ -21384,7 +21331,7 @@
         <v>0.95652957699999996</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>135</v>
       </c>
@@ -21422,7 +21369,7 @@
         <v>0.97461492699999996</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>136</v>
       </c>
@@ -21460,7 +21407,7 @@
         <v>0.99102257699999996</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>137</v>
       </c>
@@ -21498,7 +21445,7 @@
         <v>0.59580348100000002</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>138</v>
       </c>
@@ -21536,7 +21483,7 @@
         <v>0.65594479699999997</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>139</v>
       </c>
@@ -21574,7 +21521,7 @@
         <v>0.73749982599999997</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>140</v>
       </c>
@@ -21612,7 +21559,7 @@
         <v>0.82285379599999997</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>141</v>
       </c>
@@ -21650,7 +21597,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>142</v>
       </c>
@@ -21688,7 +21635,7 @@
         <v>0.94348040499999997</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>143</v>
       </c>
@@ -21726,7 +21673,7 @@
         <v>0.96530851399999995</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>144</v>
       </c>
@@ -21764,7 +21711,7 @@
         <v>0.98018609300000004</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>145</v>
       </c>
@@ -21802,7 +21749,7 @@
         <v>0.99271187699999996</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>146</v>
       </c>
@@ -21840,7 +21787,7 @@
         <v>0.78230217000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>147</v>
       </c>
@@ -21878,7 +21825,7 @@
         <v>0.86183274300000001</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>148</v>
       </c>
@@ -21916,7 +21863,7 @@
         <v>0.90587359000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>149</v>
       </c>
@@ -21954,7 +21901,7 @@
         <v>0.934824239</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>150</v>
       </c>
@@ -21992,7 +21939,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>151</v>
       </c>
@@ -22030,7 +21977,7 @@
         <v>0.96569611700000002</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>152</v>
       </c>
@@ -22068,7 +22015,7 @@
         <v>0.97133628000000005</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>153</v>
       </c>
@@ -22106,7 +22053,7 @@
         <v>0.97779191099999996</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>154</v>
       </c>
@@ -22144,7 +22091,7 @@
         <v>0.98978401100000002</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>155</v>
       </c>
@@ -22182,7 +22129,7 @@
         <v>0.67222535299999997</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>156</v>
       </c>
@@ -22220,7 +22167,7 @@
         <v>0.80775095399999997</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>157</v>
       </c>
@@ -22258,7 +22205,7 @@
         <v>0.88934015399999999</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>158</v>
       </c>
@@ -22296,7 +22243,7 @@
         <v>0.94107397000000004</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>159</v>
       </c>
@@ -22334,7 +22281,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>160</v>
       </c>
@@ -22372,7 +22319,7 @@
         <v>0.98193145500000001</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>161</v>
       </c>
@@ -22410,7 +22357,7 @@
         <v>0.98709866700000004</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>162</v>
       </c>
@@ -22448,7 +22395,7 @@
         <v>0.99052780100000004</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>163</v>
       </c>
@@ -22486,7 +22433,7 @@
         <v>0.99364207999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>164</v>
       </c>
@@ -22524,7 +22471,7 @@
         <v>0.74251462499999998</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>165</v>
       </c>
@@ -22562,7 +22509,7 @@
         <v>0.85430720199999999</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>166</v>
       </c>
@@ -22600,7 +22547,7 @@
         <v>0.91269639999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>167</v>
       </c>
@@ -22638,7 +22585,7 @@
         <v>0.94847335600000005</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>168</v>
       </c>
@@ -22676,7 +22623,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>169</v>
       </c>
@@ -22714,7 +22661,7 @@
         <v>0.98058863600000001</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>170</v>
       </c>
@@ -22752,7 +22699,7 @@
         <v>0.98488807300000003</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>171</v>
       </c>
@@ -22790,7 +22737,7 @@
         <v>0.988228942</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>172</v>
       </c>
@@ -22828,7 +22775,7 @@
         <v>0.99214795099999997</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>173</v>
       </c>
@@ -22866,7 +22813,7 @@
         <v>0.81103941800000001</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>174</v>
       </c>
@@ -22904,7 +22851,7 @@
         <v>0.87955644499999996</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>175</v>
       </c>
@@ -22942,7 +22889,7 @@
         <v>0.918919877</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>176</v>
       </c>
@@ -22980,7 +22927,7 @@
         <v>0.94636671900000002</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>177</v>
       </c>
@@ -23018,7 +22965,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>178</v>
       </c>
@@ -23056,7 +23003,7 @@
         <v>0.97865722799999999</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>179</v>
       </c>
@@ -23094,7 +23041,7 @@
         <v>0.98490784600000003</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>180</v>
       </c>
@@ -23132,7 +23079,7 @@
         <v>0.98992028700000001</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>181</v>
       </c>
@@ -23170,7 +23117,7 @@
         <v>0.99551246800000004</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>182</v>
       </c>
@@ -23208,7 +23155,7 @@
         <v>0.741537487</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>183</v>
       </c>
@@ -23246,7 +23193,7 @@
         <v>0.832416516</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>184</v>
       </c>
@@ -23284,7 +23231,7 @@
         <v>0.89180893699999997</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>185</v>
       </c>
@@ -23322,7 +23269,7 @@
         <v>0.93616336700000002</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>186</v>
       </c>
@@ -23360,7 +23307,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>187</v>
       </c>
@@ -23398,7 +23345,7 @@
         <v>0.98018498600000004</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>188</v>
       </c>
@@ -23436,7 +23383,7 @@
         <v>0.98725009699999999</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>189</v>
       </c>
@@ -23474,7 +23421,7 @@
         <v>0.99221237200000001</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>190</v>
       </c>
@@ -23512,7 +23459,7 @@
         <v>0.99666592899999995</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>191</v>
       </c>
@@ -23550,7 +23497,7 @@
         <v>0.76742051</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>192</v>
       </c>
@@ -23588,7 +23535,7 @@
         <v>0.85034953999999996</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>193</v>
       </c>
@@ -23626,7 +23573,7 @@
         <v>0.90360249199999998</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>194</v>
       </c>
@@ -23664,7 +23611,7 @@
         <v>0.94020385900000003</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>195</v>
       </c>
@@ -23702,7 +23649,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>196</v>
       </c>
@@ -23740,7 +23687,7 @@
         <v>0.97943205</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>197</v>
       </c>
@@ -23778,7 +23725,7 @@
         <v>0.98632197600000004</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>198</v>
       </c>
@@ -23816,7 +23763,7 @@
         <v>0.99128540099999995</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>199</v>
       </c>
@@ -23854,7 +23801,7 @@
         <v>0.99630577600000003</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>200</v>
       </c>
@@ -23892,7 +23839,7 @@
         <v>0.74514926699999995</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>202</v>
       </c>
@@ -23930,7 +23877,7 @@
         <v>0.74514926699999995</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>204</v>
       </c>
@@ -23968,7 +23915,7 @@
         <v>0.84051576800000005</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>205</v>
       </c>
@@ -24006,7 +23953,7 @@
         <v>0.84051576800000005</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>206</v>
       </c>
@@ -24044,7 +23991,7 @@
         <v>0.88064666000000003</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>207</v>
       </c>
@@ -24082,7 +24029,7 @@
         <v>0.88064666000000003</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>208</v>
       </c>
@@ -24120,7 +24067,7 @@
         <v>0.90199115799999996</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>209</v>
       </c>
@@ -24158,7 +24105,7 @@
         <v>0.90199115799999996</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>210</v>
       </c>
@@ -24196,7 +24143,7 @@
         <v>0.91653706000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>211</v>
       </c>
@@ -24234,7 +24181,7 @@
         <v>0.91653706000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>212</v>
       </c>
@@ -24272,7 +24219,7 @@
         <v>0.92866804700000005</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>213</v>
       </c>
@@ -24310,7 +24257,7 @@
         <v>0.92866804700000005</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>214</v>
       </c>
@@ -24348,7 +24295,7 @@
         <v>0.94211969299999998</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>215</v>
       </c>
@@ -24386,7 +24333,7 @@
         <v>0.94211969299999998</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>216</v>
       </c>
@@ -24424,7 +24371,7 @@
         <v>0.95730316199999999</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>217</v>
       </c>
@@ -24462,7 +24409,7 @@
         <v>0.95730316199999999</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>218</v>
       </c>
@@ -24500,7 +24447,7 @@
         <v>0.97738747699999995</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>219</v>
       </c>
@@ -24538,7 +24485,7 @@
         <v>0.97738747699999995</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>220</v>
       </c>
@@ -24576,7 +24523,7 @@
         <v>0.730887446</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>221</v>
       </c>
@@ -24614,7 +24561,7 @@
         <v>0.730887446</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>222</v>
       </c>
@@ -24652,7 +24599,7 @@
         <v>0.78621391500000004</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>223</v>
       </c>
@@ -24690,7 +24637,7 @@
         <v>0.78621391500000004</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>224</v>
       </c>
@@ -24728,7 +24675,7 @@
         <v>0.82012992299999998</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>225</v>
       </c>
@@ -24766,7 +24713,7 @@
         <v>0.82012992299999998</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>226</v>
       </c>
@@ -24804,7 +24751,7 @@
         <v>0.84122339499999998</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>227</v>
       </c>
@@ -24842,7 +24789,7 @@
         <v>0.84122339499999998</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>228</v>
       </c>
@@ -24880,7 +24827,7 @@
         <v>0.85767705599999999</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>229</v>
       </c>
@@ -24918,7 +24865,7 @@
         <v>0.85767705599999999</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>230</v>
       </c>
@@ -24956,7 +24903,7 @@
         <v>0.87396928699999998</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>231</v>
       </c>
@@ -24994,7 +24941,7 @@
         <v>0.87396928699999998</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>232</v>
       </c>
@@ -25032,7 +24979,7 @@
         <v>0.89529542699999998</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>233</v>
       </c>
@@ -25070,7 +25017,7 @@
         <v>0.89529542699999998</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>234</v>
       </c>
@@ -25108,7 +25055,7 @@
         <v>0.92181920900000003</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>235</v>
       </c>
@@ -25146,7 +25093,7 @@
         <v>0.92181920900000003</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>236</v>
       </c>
@@ -25184,7 +25131,7 @@
         <v>0.95921154200000003</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>237</v>
       </c>
@@ -25222,7 +25169,7 @@
         <v>0.95921154200000003</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>238</v>
       </c>
@@ -25260,7 +25207,7 @@
         <v>0.677571072</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>239</v>
       </c>
@@ -25298,7 +25245,7 @@
         <v>0.677571072</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>240</v>
       </c>
@@ -25336,7 +25283,7 @@
         <v>0.76634885399999997</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>241</v>
       </c>
@@ -25374,7 +25321,7 @@
         <v>0.76634885399999997</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>242</v>
       </c>
@@ -25412,7 +25359,7 @@
         <v>0.81191858900000002</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>243</v>
       </c>
@@ -25450,7 +25397,7 @@
         <v>0.81191858900000002</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>244</v>
       </c>
@@ -25488,7 +25435,7 @@
         <v>0.84010943199999999</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>245</v>
       </c>
@@ -25526,7 +25473,7 @@
         <v>0.84010943199999999</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>246</v>
       </c>
@@ -25564,7 +25511,7 @@
         <v>0.860832559</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>247</v>
       </c>
@@ -25602,7 +25549,7 @@
         <v>0.860832559</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>248</v>
       </c>
@@ -25640,7 +25587,7 @@
         <v>0.87960432300000002</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>249</v>
       </c>
@@ -25678,7 +25625,7 @@
         <v>0.87960432300000002</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>250</v>
       </c>
@@ -25716,7 +25663,7 @@
         <v>0.90213950600000004</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>251</v>
       </c>
@@ -25754,7 +25701,7 @@
         <v>0.90213950600000004</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>252</v>
       </c>
@@ -25792,7 +25739,7 @@
         <v>0.92921087300000005</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>253</v>
       </c>
@@ -25830,7 +25777,7 @@
         <v>0.92921087300000005</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>254</v>
       </c>
@@ -25868,7 +25815,7 @@
         <v>0.96476724999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>255</v>
       </c>
@@ -25906,7 +25853,7 @@
         <v>0.96476724999999997</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>256</v>
       </c>
@@ -25944,7 +25891,7 @@
         <v>0.84988173600000005</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>257</v>
       </c>
@@ -25982,7 +25929,7 @@
         <v>0.84988173600000005</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>258</v>
       </c>
@@ -26020,7 +25967,7 @@
         <v>0.90045487099999999</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>259</v>
       </c>
@@ -26058,7 +26005,7 @@
         <v>0.90045487099999999</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>260</v>
       </c>
@@ -26096,7 +26043,7 @@
         <v>0.92088628699999997</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>261</v>
       </c>
@@ -26134,7 +26081,7 @@
         <v>0.92088628699999997</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>262</v>
       </c>
@@ -26172,7 +26119,7 @@
         <v>0.93231294799999997</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>263</v>
       </c>
@@ -26210,7 +26157,7 @@
         <v>0.93231294799999997</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>264</v>
       </c>
@@ -26248,7 +26195,7 @@
         <v>0.94059658000000002</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>265</v>
       </c>
@@ -26286,7 +26233,7 @@
         <v>0.94059658000000002</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>266</v>
       </c>
@@ -26324,7 +26271,7 @@
         <v>0.94786090499999998</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>267</v>
       </c>
@@ -26362,7 +26309,7 @@
         <v>0.94786090499999998</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>268</v>
       </c>
@@ -26400,7 +26347,7 @@
         <v>0.95635193900000004</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>269</v>
       </c>
@@ -26438,7 +26385,7 @@
         <v>0.95635193900000004</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>270</v>
       </c>
@@ -26476,7 +26423,7 @@
         <v>0.96617739400000002</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>271</v>
       </c>
@@ -26514,7 +26461,7 @@
         <v>0.96617739400000002</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>272</v>
       </c>
@@ -26552,7 +26499,7 @@
         <v>0.97954281099999996</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>273</v>
       </c>
@@ -26590,7 +26537,7 @@
         <v>0.97954281099999996</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>274</v>
       </c>
@@ -26628,7 +26575,7 @@
         <v>0.77635848399999996</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>275</v>
       </c>
@@ -26666,7 +26613,7 @@
         <v>0.77635848399999996</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>276</v>
       </c>
@@ -26704,7 +26651,7 @@
         <v>0.86524295100000004</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>277</v>
       </c>
@@ -26742,7 +26689,7 @@
         <v>0.86524295100000004</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>278</v>
       </c>
@@ -26780,7 +26727,7 @@
         <v>0.89756382800000001</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>279</v>
       </c>
@@ -26818,7 +26765,7 @@
         <v>0.89756382800000001</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>280</v>
       </c>
@@ -26856,7 +26803,7 @@
         <v>0.91626039800000003</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>281</v>
       </c>
@@ -26894,7 +26841,7 @@
         <v>0.91626039800000003</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>282</v>
       </c>
@@ -26932,7 +26879,7 @@
         <v>0.92992887499999999</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>283</v>
       </c>
@@ -26970,7 +26917,7 @@
         <v>0.92992887499999999</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>284</v>
       </c>
@@ -27008,7 +26955,7 @@
         <v>0.94249259900000004</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>285</v>
       </c>
@@ -27046,7 +26993,7 @@
         <v>0.94249259900000004</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>286</v>
       </c>
@@ -27084,7 +27031,7 @@
         <v>0.95654484200000001</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>287</v>
       </c>
@@ -27122,7 +27069,7 @@
         <v>0.95654484200000001</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>288</v>
       </c>
@@ -27160,7 +27107,7 @@
         <v>0.97171218199999998</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>289</v>
       </c>
@@ -27198,7 +27145,7 @@
         <v>0.97171218199999998</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>290</v>
       </c>
@@ -27236,7 +27183,7 @@
         <v>0.98937437299999997</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>291</v>
       </c>
@@ -27274,7 +27221,7 @@
         <v>0.98937437299999997</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>292</v>
       </c>
@@ -27312,7 +27259,7 @@
         <v>0.81969486499999999</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>293</v>
       </c>
@@ -27350,7 +27297,7 @@
         <v>0.81969486499999999</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>294</v>
       </c>
@@ -27388,7 +27335,7 @@
         <v>0.88269245299999999</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>295</v>
       </c>
@@ -27426,7 +27373,7 @@
         <v>0.88269245299999999</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>296</v>
       </c>
@@ -27464,7 +27411,7 @@
         <v>0.91150786500000003</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>297</v>
       </c>
@@ -27502,7 +27449,7 @@
         <v>0.91150786500000003</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>298</v>
       </c>
@@ -27540,7 +27487,7 @@
         <v>0.928604859</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>299</v>
       </c>
@@ -27578,7 +27525,7 @@
         <v>0.928604859</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>300</v>
       </c>
@@ -27616,7 +27563,7 @@
         <v>0.94034933899999995</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>301</v>
       </c>
@@ -27654,7 +27601,7 @@
         <v>0.94034933899999995</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>302</v>
       </c>
@@ -27692,7 +27639,7 @@
         <v>0.95040040299999995</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>303</v>
       </c>
@@ -27730,7 +27677,7 @@
         <v>0.95040040299999995</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>304</v>
       </c>
@@ -27768,7 +27715,7 @@
         <v>0.96126379100000003</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>305</v>
       </c>
@@ -27806,7 +27753,7 @@
         <v>0.96126379100000003</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>306</v>
       </c>
@@ -27844,7 +27791,7 @@
         <v>0.97339021999999997</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>307</v>
       </c>
@@ -27882,7 +27829,7 @@
         <v>0.97339021999999997</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>308</v>
       </c>
@@ -27920,7 +27867,7 @@
         <v>0.987846055</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>309</v>
       </c>
@@ -27958,7 +27905,7 @@
         <v>0.987846055</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>310</v>
       </c>
@@ -27996,7 +27943,7 @@
         <v>0.86258027500000001</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>311</v>
       </c>
@@ -28034,7 +27981,7 @@
         <v>0.86258027500000001</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>312</v>
       </c>
@@ -28072,7 +28019,7 @@
         <v>0.91901596100000005</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>313</v>
       </c>
@@ -28110,7 +28057,7 @@
         <v>0.91901596100000005</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>314</v>
       </c>
@@ -28148,7 +28095,7 @@
         <v>0.94077713699999999</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>315</v>
       </c>
@@ -28186,7 +28133,7 @@
         <v>0.94077713699999999</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>316</v>
       </c>
@@ -28224,7 +28171,7 @@
         <v>0.95235536200000004</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>317</v>
       </c>
@@ -28262,7 +28209,7 @@
         <v>0.95235536200000004</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>318</v>
       </c>
@@ -28300,7 +28247,7 @@
         <v>0.96029798700000002</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>319</v>
       </c>
@@ -28338,7 +28285,7 @@
         <v>0.96029798700000002</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>320</v>
       </c>
@@ -28376,7 +28323,7 @@
         <v>0.96679266500000005</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>321</v>
       </c>
@@ -28414,7 +28361,7 @@
         <v>0.96679266500000005</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>322</v>
       </c>
@@ -28452,7 +28399,7 @@
         <v>0.97371296399999996</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>323</v>
       </c>
@@ -28490,7 +28437,7 @@
         <v>0.97371296399999996</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>324</v>
       </c>
@@ -28528,7 +28475,7 @@
         <v>0.98101091299999998</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>325</v>
       </c>
@@ -28566,7 +28513,7 @@
         <v>0.98101091299999998</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>326</v>
       </c>
@@ -28604,7 +28551,7 @@
         <v>0.98964456300000003</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>327</v>
       </c>
@@ -28642,7 +28589,7 @@
         <v>0.98964456300000003</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>328</v>
       </c>
@@ -28680,7 +28627,7 @@
         <v>0.80098502800000004</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>329</v>
       </c>
@@ -28718,7 +28665,7 @@
         <v>0.80098502800000004</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>330</v>
       </c>
@@ -28756,7 +28703,7 @@
         <v>0.87408709900000003</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>331</v>
       </c>
@@ -28794,7 +28741,7 @@
         <v>0.87408709900000003</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>332</v>
       </c>
@@ -28832,7 +28779,7 @@
         <v>0.90858695700000003</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>333</v>
       </c>
@@ -28870,7 +28817,7 @@
         <v>0.90858695700000003</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>334</v>
       </c>
@@ -28908,7 +28855,7 @@
         <v>0.92749815899999999</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>335</v>
       </c>
@@ -28946,7 +28893,7 @@
         <v>0.92749815899999999</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>336</v>
       </c>
@@ -28984,7 +28931,7 @@
         <v>0.93947708299999999</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>337</v>
       </c>
@@ -29022,7 +28969,7 @@
         <v>0.93947708299999999</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>338</v>
       </c>
@@ -29060,7 +29007,7 @@
         <v>0.94905173899999995</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>339</v>
       </c>
@@ -29098,7 +29045,7 @@
         <v>0.94905173899999995</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>340</v>
       </c>
@@ -29136,7 +29083,7 @@
         <v>0.95987375200000002</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>341</v>
       </c>
@@ -29174,7 +29121,7 @@
         <v>0.95987375200000002</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>342</v>
       </c>
@@ -29212,7 +29159,7 @@
         <v>0.97264755899999999</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>343</v>
       </c>
@@ -29250,7 +29197,7 @@
         <v>0.97264755899999999</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>344</v>
       </c>
@@ -29288,7 +29235,7 @@
         <v>0.98705522499999998</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>345</v>
       </c>
@@ -29326,7 +29273,7 @@
         <v>0.98705522499999998</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>346</v>
       </c>
@@ -29364,7 +29311,7 @@
         <v>0.83375186800000001</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>347</v>
       </c>
@@ -29402,7 +29349,7 @@
         <v>0.83375186800000001</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>348</v>
       </c>
@@ -29440,7 +29387,7 @@
         <v>0.897582294</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>349</v>
       </c>
@@ -29478,7 +29425,7 @@
         <v>0.897582294</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>350</v>
       </c>
@@ -29516,7 +29463,7 @@
         <v>0.92309062500000005</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>351</v>
       </c>
@@ -29554,7 +29501,7 @@
         <v>0.92309062500000005</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>352</v>
       </c>
@@ -29592,7 +29539,7 @@
         <v>0.93701417099999995</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>353</v>
       </c>
@@ -29630,7 +29577,7 @@
         <v>0.93701417099999995</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>354</v>
       </c>
@@ -29668,7 +29615,7 @@
         <v>0.94713378599999998</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>355</v>
       </c>
@@ -29706,7 +29653,7 @@
         <v>0.94713378599999998</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>356</v>
       </c>
@@ -29744,7 +29691,7 @@
         <v>0.955759421</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>357</v>
       </c>
@@ -29782,7 +29729,7 @@
         <v>0.955759421</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>358</v>
       </c>
@@ -29820,7 +29767,7 @@
         <v>0.96529513600000005</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>359</v>
       </c>
@@ -29858,7 +29805,7 @@
         <v>0.96529513600000005</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>360</v>
       </c>
@@ -29896,7 +29843,7 @@
         <v>0.97567225000000002</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>361</v>
       </c>
@@ -29934,7 +29881,7 @@
         <v>0.97567225000000002</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>362</v>
       </c>
@@ -29972,7 +29919,7 @@
         <v>0.98777227300000003</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>363</v>
       </c>
@@ -30010,7 +29957,7 @@
         <v>0.98777227300000003</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>364</v>
       </c>
@@ -30048,7 +29995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>366</v>
       </c>
@@ -30086,7 +30033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>367</v>
       </c>
@@ -30124,7 +30071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>368</v>
       </c>
@@ -30162,7 +30109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>369</v>
       </c>
@@ -30200,7 +30147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>370</v>
       </c>
@@ -30238,7 +30185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>371</v>
       </c>
@@ -30276,7 +30223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>372</v>
       </c>
@@ -30314,7 +30261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>373</v>
       </c>
@@ -30352,7 +30299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>374</v>
       </c>
@@ -30390,7 +30337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>375</v>
       </c>
@@ -30428,7 +30375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>376</v>
       </c>
@@ -30466,7 +30413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>377</v>
       </c>
@@ -30504,7 +30451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>378</v>
       </c>
@@ -30542,7 +30489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>379</v>
       </c>
@@ -30580,7 +30527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>380</v>
       </c>
@@ -30618,7 +30565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>381</v>
       </c>
@@ -30656,7 +30603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>382</v>
       </c>
@@ -30694,7 +30641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>383</v>
       </c>
@@ -30732,7 +30679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>384</v>
       </c>
@@ -30770,7 +30717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>385</v>
       </c>
@@ -30808,7 +30755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>386</v>
       </c>
@@ -30846,7 +30793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>387</v>
       </c>
@@ -30884,7 +30831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>388</v>
       </c>
@@ -30922,7 +30869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>389</v>
       </c>
@@ -30960,7 +30907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>390</v>
       </c>
@@ -30998,7 +30945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>391</v>
       </c>
@@ -31036,7 +30983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>392</v>
       </c>
@@ -31074,7 +31021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -31112,7 +31059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>394</v>
       </c>
@@ -31150,7 +31097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -31188,7 +31135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>396</v>
       </c>
@@ -31226,7 +31173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>397</v>
       </c>
@@ -31264,7 +31211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>398</v>
       </c>
@@ -31302,7 +31249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -31340,7 +31287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -31378,7 +31325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -31416,7 +31363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -31454,7 +31401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -31492,7 +31439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -31530,7 +31477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -31568,7 +31515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -31606,7 +31553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -31644,7 +31591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -31682,7 +31629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -31720,7 +31667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -31758,7 +31705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>411</v>
       </c>
@@ -31796,7 +31743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>412</v>
       </c>
@@ -31834,7 +31781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>413</v>
       </c>
@@ -31872,7 +31819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>414</v>
       </c>
@@ -31910,7 +31857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>415</v>
       </c>
@@ -31948,7 +31895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>416</v>
       </c>
@@ -31986,7 +31933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>417</v>
       </c>
@@ -32024,7 +31971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>418</v>
       </c>
@@ -32062,7 +32009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>419</v>
       </c>
@@ -32100,7 +32047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>420</v>
       </c>
@@ -32138,7 +32085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>421</v>
       </c>
@@ -32176,7 +32123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>422</v>
       </c>
@@ -32214,7 +32161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>423</v>
       </c>
@@ -32252,7 +32199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>424</v>
       </c>
@@ -32290,7 +32237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>425</v>
       </c>
@@ -32328,7 +32275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>426</v>
       </c>
@@ -32366,7 +32313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>427</v>
       </c>
@@ -32404,7 +32351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>428</v>
       </c>
@@ -32442,7 +32389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>429</v>
       </c>
@@ -32480,7 +32427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>430</v>
       </c>
@@ -32518,7 +32465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>431</v>
       </c>
@@ -32556,7 +32503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>432</v>
       </c>
@@ -32594,7 +32541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>433</v>
       </c>
@@ -32632,7 +32579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>434</v>
       </c>
@@ -32670,7 +32617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>435</v>
       </c>
@@ -32708,7 +32655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>436</v>
       </c>
@@ -32746,7 +32693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>437</v>
       </c>
@@ -32784,7 +32731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>438</v>
       </c>
@@ -32822,7 +32769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>439</v>
       </c>
@@ -32860,7 +32807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>440</v>
       </c>
@@ -32898,7 +32845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>441</v>
       </c>
@@ -32936,7 +32883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>442</v>
       </c>
@@ -32974,7 +32921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>443</v>
       </c>
@@ -33012,7 +32959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>444</v>
       </c>
@@ -33050,7 +32997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>445</v>
       </c>
@@ -33088,7 +33035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>446</v>
       </c>
@@ -33126,7 +33073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>447</v>
       </c>
@@ -33164,7 +33111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>448</v>
       </c>
@@ -33202,7 +33149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>449</v>
       </c>
@@ -33240,7 +33187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>450</v>
       </c>
@@ -33278,7 +33225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>451</v>
       </c>
@@ -33316,7 +33263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>452</v>
       </c>
@@ -33354,7 +33301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>453</v>
       </c>
@@ -33392,7 +33339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>454</v>
       </c>
@@ -33430,7 +33377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>455</v>
       </c>
@@ -33468,7 +33415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>456</v>
       </c>
@@ -33506,7 +33453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>457</v>
       </c>
@@ -33544,7 +33491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>458</v>
       </c>
@@ -33582,7 +33529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>459</v>
       </c>
@@ -33620,7 +33567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>460</v>
       </c>
@@ -33658,7 +33605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>461</v>
       </c>
@@ -33696,7 +33643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>462</v>
       </c>
@@ -33734,7 +33681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>463</v>
       </c>
@@ -33772,7 +33719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>464</v>
       </c>
@@ -33810,7 +33757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>465</v>
       </c>
@@ -33848,7 +33795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>466</v>
       </c>
@@ -33886,7 +33833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>467</v>
       </c>
@@ -33924,7 +33871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>468</v>
       </c>
@@ -33962,7 +33909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>469</v>
       </c>
@@ -34000,7 +33947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>470</v>
       </c>
@@ -34038,7 +33985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>471</v>
       </c>
@@ -34076,7 +34023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>472</v>
       </c>
@@ -34114,7 +34061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>473</v>
       </c>
@@ -34152,7 +34099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>474</v>
       </c>
@@ -34190,7 +34137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>475</v>
       </c>
@@ -34228,7 +34175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>476</v>
       </c>
@@ -34266,7 +34213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>477</v>
       </c>
@@ -34304,7 +34251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>478</v>
       </c>
@@ -34342,7 +34289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>479</v>
       </c>
@@ -34380,7 +34327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>480</v>
       </c>
@@ -34418,7 +34365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>481</v>
       </c>
@@ -34456,7 +34403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>482</v>
       </c>
@@ -34494,7 +34441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>483</v>
       </c>
@@ -34532,7 +34479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>484</v>
       </c>
@@ -34570,7 +34517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>485</v>
       </c>
@@ -34608,7 +34555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>486</v>
       </c>
@@ -34646,7 +34593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>487</v>
       </c>
@@ -34684,7 +34631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>488</v>
       </c>
@@ -34722,7 +34669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>489</v>
       </c>
@@ -34760,7 +34707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>490</v>
       </c>
@@ -34798,7 +34745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>491</v>
       </c>
@@ -34836,7 +34783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>492</v>
       </c>
@@ -34874,7 +34821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>493</v>
       </c>
@@ -34912,7 +34859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>494</v>
       </c>
@@ -34950,7 +34897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>495</v>
       </c>
@@ -34988,7 +34935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>496</v>
       </c>
@@ -35026,7 +34973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>497</v>
       </c>
@@ -35064,7 +35011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>498</v>
       </c>
@@ -35102,7 +35049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>499</v>
       </c>
@@ -35140,7 +35087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>500</v>
       </c>
@@ -35178,7 +35125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>501</v>
       </c>
@@ -35216,7 +35163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>502</v>
       </c>
@@ -35254,7 +35201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>503</v>
       </c>
@@ -35292,7 +35239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>504</v>
       </c>
@@ -35330,7 +35277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>505</v>
       </c>
@@ -35368,7 +35315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>506</v>
       </c>
@@ -35406,7 +35353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>507</v>
       </c>
@@ -35444,7 +35391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>508</v>
       </c>
@@ -35482,7 +35429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>509</v>
       </c>
@@ -35520,7 +35467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>510</v>
       </c>
@@ -35558,7 +35505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>511</v>
       </c>
@@ -35596,7 +35543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>512</v>
       </c>
@@ -35634,7 +35581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>513</v>
       </c>
@@ -35672,7 +35619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>514</v>
       </c>
@@ -35710,7 +35657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>515</v>
       </c>
@@ -35748,7 +35695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>516</v>
       </c>
@@ -35786,7 +35733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>517</v>
       </c>
@@ -35824,7 +35771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>518</v>
       </c>
@@ -35862,7 +35809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>519</v>
       </c>
@@ -35900,7 +35847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>520</v>
       </c>
@@ -35938,7 +35885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>521</v>
       </c>
@@ -35976,7 +35923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>522</v>
       </c>
@@ -36014,7 +35961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>523</v>
       </c>
@@ -36052,7 +35999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>524</v>
       </c>
@@ -36090,7 +36037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>525</v>
       </c>
@@ -36128,7 +36075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>526</v>
       </c>
@@ -36166,7 +36113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>527</v>
       </c>
@@ -36204,7 +36151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>528</v>
       </c>
@@ -36242,7 +36189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>529</v>
       </c>
@@ -36280,7 +36227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>530</v>
       </c>
@@ -36318,7 +36265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>531</v>
       </c>
@@ -36356,7 +36303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>532</v>
       </c>
@@ -36394,7 +36341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>533</v>
       </c>
@@ -36432,7 +36379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>534</v>
       </c>
@@ -36470,7 +36417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>535</v>
       </c>
@@ -36508,7 +36455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>536</v>
       </c>
@@ -36546,7 +36493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>537</v>
       </c>
@@ -36584,7 +36531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>538</v>
       </c>
@@ -36622,7 +36569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>539</v>
       </c>
@@ -36660,7 +36607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>540</v>
       </c>
@@ -36698,7 +36645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>541</v>
       </c>
@@ -36736,7 +36683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>542</v>
       </c>
@@ -36774,7 +36721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>543</v>
       </c>
@@ -36812,7 +36759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>544</v>
       </c>
@@ -36850,7 +36797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>627</v>
       </c>
@@ -36888,7 +36835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>628</v>
       </c>
@@ -36926,7 +36873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>629</v>
       </c>
@@ -36964,7 +36911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>630</v>
       </c>
@@ -37002,7 +36949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>631</v>
       </c>
@@ -37040,7 +36987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>632</v>
       </c>
@@ -37078,7 +37025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>633</v>
       </c>
@@ -37116,7 +37063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>634</v>
       </c>
@@ -37154,7 +37101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>635</v>
       </c>
@@ -37192,7 +37139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>636</v>
       </c>
@@ -37230,7 +37177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>637</v>
       </c>
@@ -37268,7 +37215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>638</v>
       </c>
@@ -37306,7 +37253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>639</v>
       </c>
@@ -37344,7 +37291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>640</v>
       </c>
@@ -37382,7 +37329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>641</v>
       </c>
@@ -37420,7 +37367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>642</v>
       </c>
@@ -37458,7 +37405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>643</v>
       </c>
@@ -37496,7 +37443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>644</v>
       </c>
@@ -37534,7 +37481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>645</v>
       </c>
@@ -37572,7 +37519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>646</v>
       </c>
@@ -37610,7 +37557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>647</v>
       </c>
@@ -37648,7 +37595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>648</v>
       </c>
@@ -37686,7 +37633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>649</v>
       </c>
@@ -37724,7 +37671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>650</v>
       </c>
@@ -37762,7 +37709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>651</v>
       </c>
@@ -37800,7 +37747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>652</v>
       </c>
@@ -37838,7 +37785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>653</v>
       </c>
@@ -37876,7 +37823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>654</v>
       </c>
@@ -37914,7 +37861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>655</v>
       </c>
@@ -37952,7 +37899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>656</v>
       </c>
@@ -37990,7 +37937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>657</v>
       </c>
@@ -38028,7 +37975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>658</v>
       </c>
@@ -38066,7 +38013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>659</v>
       </c>
@@ -38104,7 +38051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>660</v>
       </c>
@@ -38142,7 +38089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>661</v>
       </c>
@@ -38180,7 +38127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>662</v>
       </c>
@@ -38218,7 +38165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>663</v>
       </c>
@@ -38256,7 +38203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>664</v>
       </c>
@@ -38294,7 +38241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>665</v>
       </c>
@@ -38332,7 +38279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>666</v>
       </c>
@@ -38370,7 +38317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>667</v>
       </c>
@@ -38408,7 +38355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>668</v>
       </c>
@@ -38446,7 +38393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>669</v>
       </c>
@@ -38484,7 +38431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>670</v>
       </c>
@@ -38522,7 +38469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>671</v>
       </c>
@@ -38560,7 +38507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>672</v>
       </c>
@@ -38598,7 +38545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>673</v>
       </c>
@@ -38636,7 +38583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>674</v>
       </c>
@@ -38674,7 +38621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>675</v>
       </c>
@@ -38712,7 +38659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>676</v>
       </c>
@@ -38750,7 +38697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>677</v>
       </c>
@@ -38788,7 +38735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>678</v>
       </c>
@@ -38826,7 +38773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>679</v>
       </c>
@@ -38864,7 +38811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>680</v>
       </c>
@@ -38902,7 +38849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>681</v>
       </c>
@@ -38940,7 +38887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>682</v>
       </c>
@@ -38978,7 +38925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>683</v>
       </c>
@@ -39016,7 +38963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>684</v>
       </c>
@@ -39054,7 +39001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>685</v>
       </c>
@@ -39092,7 +39039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>686</v>
       </c>
@@ -39130,7 +39077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>687</v>
       </c>
@@ -39168,7 +39115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>688</v>
       </c>
@@ -39206,7 +39153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>689</v>
       </c>
@@ -39244,7 +39191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>690</v>
       </c>
@@ -39282,7 +39229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>691</v>
       </c>
@@ -39320,7 +39267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>692</v>
       </c>
@@ -39358,7 +39305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>693</v>
       </c>
@@ -39396,7 +39343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>694</v>
       </c>
@@ -39434,7 +39381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>695</v>
       </c>
@@ -39472,7 +39419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>696</v>
       </c>
@@ -39510,7 +39457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>697</v>
       </c>
@@ -39548,7 +39495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>698</v>
       </c>
@@ -39586,7 +39533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>699</v>
       </c>
@@ -39624,7 +39571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>700</v>
       </c>
@@ -39662,7 +39609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>701</v>
       </c>
@@ -39700,7 +39647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>702</v>
       </c>
@@ -39738,7 +39685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>703</v>
       </c>
@@ -39776,7 +39723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>704</v>
       </c>
@@ -39814,7 +39761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>705</v>
       </c>
@@ -39852,7 +39799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>706</v>
       </c>
@@ -39890,7 +39837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>707</v>
       </c>
@@ -39928,7 +39875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>546</v>
       </c>
@@ -39966,7 +39913,7 @@
         <v>0.76469498800000002</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>547</v>
       </c>
@@ -40004,7 +39951,7 @@
         <v>0.82940026700000002</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>548</v>
       </c>
@@ -40042,7 +39989,7 @@
         <v>0.86584713099999999</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>549</v>
       </c>
@@ -40080,7 +40027,7 @@
         <v>0.89160209899999998</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>550</v>
       </c>
@@ -40118,7 +40065,7 @@
         <v>0.91258894300000004</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>551</v>
       </c>
@@ -40156,7 +40103,7 @@
         <v>0.92559498799999995</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>552</v>
       </c>
@@ -40194,7 +40141,7 @@
         <v>0.93931725799999999</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>553</v>
       </c>
@@ -40232,7 +40179,7 @@
         <v>0.95964364700000004</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>554</v>
       </c>
@@ -40270,7 +40217,7 @@
         <v>0.98603127999999995</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>555</v>
       </c>
@@ -40308,7 +40255,7 @@
         <v>0.75959782799999997</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>556</v>
       </c>
@@ -40346,7 +40293,7 @@
         <v>0.79500078399999996</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>557</v>
       </c>
@@ -40384,7 +40331,7 @@
         <v>0.82521221499999997</v>
       </c>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>558</v>
       </c>
@@ -40422,7 +40369,7 @@
         <v>0.85367628600000001</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>559</v>
       </c>
@@ -40460,7 +40407,7 @@
         <v>0.87334996799999998</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>560</v>
       </c>
@@ -40498,7 +40445,7 @@
         <v>0.88971093400000001</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>561</v>
       </c>
@@ -40536,7 +40483,7 @@
         <v>0.91175181000000005</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>562</v>
       </c>
@@ -40574,7 +40521,7 @@
         <v>0.94496068099999997</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>563</v>
       </c>
@@ -40612,7 +40559,7 @@
         <v>0.97833015999999995</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>564</v>
       </c>
@@ -40650,7 +40597,7 @@
         <v>0.70381563700000005</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>565</v>
       </c>
@@ -40688,7 +40635,7 @@
         <v>0.771109775</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>566</v>
       </c>
@@ -40726,7 +40673,7 @@
         <v>0.81795485000000001</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>567</v>
       </c>
@@ -40764,7 +40711,7 @@
         <v>0.85786003399999999</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>568</v>
       </c>
@@ -40802,7 +40749,7 @@
         <v>0.88181086799999997</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>569</v>
       </c>
@@ -40840,7 +40787,7 @@
         <v>0.90565849300000001</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>570</v>
       </c>
@@ -40878,7 +40825,7 @@
         <v>0.92026222400000002</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>571</v>
       </c>
@@ -40916,7 +40863,7 @@
         <v>0.95303708799999998</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>572</v>
       </c>
@@ -40954,7 +40901,7 @@
         <v>0.98459421000000003</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>573</v>
       </c>
@@ -40992,7 +40939,7 @@
         <v>0.87736852799999998</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>574</v>
       </c>
@@ -41030,7 +40977,7 @@
         <v>0.90796803999999998</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>575</v>
       </c>
@@ -41068,7 +41015,7 @@
         <v>0.92510247300000004</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>576</v>
       </c>
@@ -41106,7 +41053,7 @@
         <v>0.93868119400000005</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>577</v>
       </c>
@@ -41144,7 +41091,7 @@
         <v>0.947429937</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>578</v>
       </c>
@@ -41182,7 +41129,7 @@
         <v>0.95323039399999998</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>579</v>
       </c>
@@ -41220,7 +41167,7 @@
         <v>0.95858173300000005</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>580</v>
       </c>
@@ -41258,7 +41205,7 @@
         <v>0.967139627</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>581</v>
       </c>
@@ -41296,7 +41243,7 @@
         <v>0.98263441100000004</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>582</v>
       </c>
@@ -41334,7 +41281,7 @@
         <v>0.84192500400000003</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>583</v>
       </c>
@@ -41372,7 +41319,7 @@
         <v>0.89172450000000003</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>584</v>
       </c>
@@ -41410,7 +41357,7 @@
         <v>0.92483143899999998</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>585</v>
       </c>
@@ -41448,7 +41395,7 @@
         <v>0.94327669599999997</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>586</v>
       </c>
@@ -41486,7 +41433,7 @@
         <v>0.95720626099999995</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>587</v>
       </c>
@@ -41524,7 +41471,7 @@
         <v>0.96432669900000001</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>588</v>
       </c>
@@ -41562,7 +41509,7 @@
         <v>0.97001654800000003</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>589</v>
       </c>
@@ -41600,7 +41547,7 @@
         <v>0.97956193300000005</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>590</v>
       </c>
@@ -41638,7 +41585,7 @@
         <v>0.99023604300000001</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>591</v>
       </c>
@@ -41676,7 +41623,7 @@
         <v>0.86521180399999997</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>592</v>
       </c>
@@ -41714,7 +41661,7 @@
         <v>0.90900401099999995</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>593</v>
       </c>
@@ -41752,7 +41699,7 @@
         <v>0.93006460000000002</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>594</v>
       </c>
@@ -41790,7 +41737,7 @@
         <v>0.94766002199999999</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>595</v>
       </c>
@@ -41828,7 +41775,7 @@
         <v>0.959154964</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>596</v>
       </c>
@@ -41866,7 +41813,7 @@
         <v>0.96573204899999998</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>597</v>
       </c>
@@ -41904,7 +41851,7 @@
         <v>0.97096217500000004</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>598</v>
       </c>
@@ -41942,7 +41889,7 @@
         <v>0.97923214199999997</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>599</v>
       </c>
@@ -41980,7 +41927,7 @@
         <v>0.98797745400000003</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>600</v>
       </c>
@@ -42018,7 +41965,7 @@
         <v>0.88326797400000001</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>601</v>
       </c>
@@ -42056,7 +42003,7 @@
         <v>0.91329766000000001</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>602</v>
       </c>
@@ -42094,7 +42041,7 @@
         <v>0.93396243599999995</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>603</v>
       </c>
@@ -42132,7 +42079,7 @@
         <v>0.94424632399999997</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>604</v>
       </c>
@@ -42170,7 +42117,7 @@
         <v>0.95256922200000005</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>605</v>
       </c>
@@ -42208,7 +42155,7 @@
         <v>0.96141120599999996</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>606</v>
       </c>
@@ -42246,7 +42193,7 @@
         <v>0.96769704300000003</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>607</v>
       </c>
@@ -42284,7 +42231,7 @@
         <v>0.97842693700000005</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>608</v>
       </c>
@@ -42322,7 +42269,7 @@
         <v>0.98989226900000005</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>609</v>
       </c>
@@ -42360,7 +42307,7 @@
         <v>0.85381284099999999</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>610</v>
       </c>
@@ -42398,7 +42345,7 @@
         <v>0.89835938599999998</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>611</v>
       </c>
@@ -42436,7 +42383,7 @@
         <v>0.92367672899999997</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>612</v>
       </c>
@@ -42474,7 +42421,7 @@
         <v>0.94050324299999999</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>613</v>
       </c>
@@ -42512,7 +42459,7 @@
         <v>0.953850105</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>614</v>
       </c>
@@ -42550,7 +42497,7 @@
         <v>0.96232512400000003</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>615</v>
       </c>
@@ -42588,7 +42535,7 @@
         <v>0.96801223800000002</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>616</v>
       </c>
@@ -42626,7 +42573,7 @@
         <v>0.97987032500000004</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>617</v>
       </c>
@@ -42664,7 +42611,7 @@
         <v>0.99209860999999999</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>618</v>
       </c>
@@ -42702,7 +42649,7 @@
         <v>0.85782433000000002</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>619</v>
       </c>
@@ -42740,7 +42687,7 @@
         <v>0.90038555499999995</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>620</v>
       </c>
@@ -42778,7 +42725,7 @@
         <v>0.92760187599999999</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>621</v>
       </c>
@@ -42816,7 +42763,7 @@
         <v>0.94288605000000003</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>622</v>
       </c>
@@ -42854,7 +42801,7 @@
         <v>0.953160232</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>623</v>
       </c>
@@ -42892,7 +42839,7 @@
         <v>0.95959235499999995</v>
       </c>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>624</v>
       </c>
@@ -42930,7 +42877,7 @@
         <v>0.96664521199999998</v>
       </c>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>625</v>
       </c>
@@ -42968,7 +42915,7 @@
         <v>0.97827589699999995</v>
       </c>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>626</v>
       </c>
@@ -43017,23 +42964,23 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView topLeftCell="G11" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -43041,7 +42988,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -43049,7 +42996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -43057,7 +43004,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -43065,12 +43012,12 @@
         <v>711</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -43087,7 +43034,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>709</v>
       </c>
@@ -43110,293 +43057,293 @@
         <v>715</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>0.73089258533333334</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>28336</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>0.81707533366666674</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>99463.333333333328</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>0.84078856533333335</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>115884</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
         <v>0.79625216144444455</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10">
         <v>81227.777777777781</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>20</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>0.81772134266666663</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>64255</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>0.88587418399999995</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>179100.66666666666</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>0.88285629966666679</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11">
         <v>163860.66666666666</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11">
         <v>0.86215060877777772</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11">
         <v>135738.77777777778</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>30</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>0.87446739566666665</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>112465.66666666667</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>0.91361448333333339</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>245336.33333333334</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>0.90777166099999995</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
         <v>207923.33333333334</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12">
         <v>0.89861784666666666</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12">
         <v>188575.11111111112</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>40</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>0.9175661323333334</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>183122.33333333334</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>0.92852377699999999</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>298356.66666666669</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>0.92442085866666668</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13">
         <v>256314.66666666666</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13">
         <v>0.92350358933333332</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13">
         <v>245931.22222222222</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>50</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>0.94666423333333327</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>277321.33333333331</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>0.93885671733333342</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>348313.33333333331</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>0.93719514133333337</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
         <v>304166.66666666669</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14">
         <v>0.94090536399999991</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14">
         <v>309933.77777777775</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>60</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>0.96741280133333341</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>417679.66666666669</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>0.94753141399999985</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>402502.66666666669</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>0.94647068499999998</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15">
         <v>347796.66666666669</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15">
         <v>0.95380496677777793</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15">
         <v>389326.33333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>70</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>0.97633748300000001</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>531712.33333333337</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>0.95718132566666669</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>484228.66666666669</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>0.95498806166666661</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16">
         <v>397032.66666666669</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16">
         <v>0.9628356234444444</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16">
         <v>470991.22222222225</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>80</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>0.98364947433333327</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>682815.66666666663</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>0.96802189866666666</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>617721.66666666663</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17">
         <v>0.96824916166666652</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17">
         <v>520170</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17">
         <v>0.97330684488888886</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17">
         <v>606902.4444444445</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>90</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>0.99273086066666671</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>1053617.3333333333</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>0.98215243066666658</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>1149130.3333333333</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18">
         <v>0.9861165116666667</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18">
         <v>849090.66666666663</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18">
         <v>0.98699993433333333</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18">
         <v>1017279.4444444445</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>0.91193803429629627</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>372369.48148148146</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>0.92653684048148155</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>424905.96296296298</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19">
         <v>0.92765077177777766</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19">
         <v>351359.9259259259</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19">
         <v>0.92204188218518524</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19">
         <v>382878.45679012348</v>
       </c>
     </row>
@@ -43410,26 +43357,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9CA198-4616-D447-86A2-E1A86C4CDBC4}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -43437,7 +43384,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -43445,7 +43392,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -43453,7 +43400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -43461,12 +43408,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -43483,7 +43430,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>709</v>
       </c>
@@ -43506,318 +43453,316 @@
         <v>719</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>0.94666423333333338</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>277321.33333333331</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>9530268</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3">
+      <c r="H9">
         <v>0.97333211666666664</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9">
         <v>4903794.666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>0.94666423333333338</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>277321.33333333331</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>5137376.333333333</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>3639044</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
         <v>0.98222141111111105</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10">
         <v>3017913.888888889</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>0.94666423333333338</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>277321.33333333331</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>5107374.666666667</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>3639044</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11">
         <v>0.98222141111111105</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11">
         <v>3007913.3333333335</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>0.94666423333333338</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>277321.33333333331</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>5030858.333333333</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>3639044</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12">
         <v>0.98222141111111105</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12">
         <v>2982407.888888889</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>4</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>0.94666423333333338</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>277321.33333333331</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>5101173.333333333</v>
       </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>3639044</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13">
         <v>0.98222141111111105</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13">
         <v>3005846.222222222</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>0.94666423333333338</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>277321.33333333331</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>5047969.666666667</v>
       </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>3639044</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14">
         <v>0.98222141111111105</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14">
         <v>2988111.6666666665</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>6</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>0.94666423333333338</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>277321.33333333331</v>
       </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>4973171.333333333</v>
       </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>3639044</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15">
         <v>0.98222141111111105</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15">
         <v>2963178.888888889</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>7</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>0.94666423333333338</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>277321.33333333331</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>4950051.333333333</v>
       </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>3639044</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16">
         <v>0.98222141111111105</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16">
         <v>2955472.222222222</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>8</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>0.94666423333333338</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>277321.33333333331</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>4927329</v>
       </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>3639044</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17">
         <v>0.98222141111111105</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17">
         <v>2947898.111111111</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>9</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>0.94666423333333338</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>277321.33333333331</v>
       </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>4921210.666666667</v>
       </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>3639044</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18">
         <v>0.98222141111111105</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18">
         <v>2945858.6666666665</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>0.94666423333333372</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>277321.33333333331</v>
       </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>5472678.2666666666</v>
       </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>3639044</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19">
         <v>0.98160835632183885</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19">
         <v>3112116.9655172415</v>
       </c>
     </row>
@@ -43833,7 +43778,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/images/TABELE I WYKRESY.xlsx
+++ b/images/TABELE I WYKRESY.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF863F2-71AF-402D-94C0-3A27DE10D2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D994C4D6-A790-CA4D-A5CF-63256B4AA61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
     <sheet name="Formaty stratne" sheetId="2" r:id="rId2"/>
     <sheet name="lossless" sheetId="11" r:id="rId3"/>
-    <sheet name="Arkusz2" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Files!$A$1:$L$676</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="30" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -2227,7 +2226,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2245,7 +2244,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2373,7 +2372,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2429,7 +2428,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2662,7 +2661,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2718,7 +2717,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2774,7 +2773,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2830,7 +2829,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3945,7 +3944,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4064,7 +4063,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4120,7 +4119,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4176,7 +4175,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4232,7 +4231,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4498,7 +4497,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4554,7 +4553,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5390,7 +5389,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="867198032"/>
@@ -5409,6 +5408,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="867203312"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -6695,7 +6695,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Author" refreshedDate="45738.497379282409" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="675" xr:uid="{91751B46-95C2-4870-8CF1-E10647333563}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="45738.497379282409" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="675" xr:uid="{91751B46-95C2-4870-8CF1-E10647333563}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:L676" sheet="Files"/>
   </cacheSource>
@@ -16243,7 +16243,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2DE39CE3-8D86-42CB-8145-28EFD8E23B3C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2DE39CE3-8D86-42CB-8145-28EFD8E23B3C}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22">
   <location ref="A7:I19" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -16499,7 +16499,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6FA09750-9DB6-0B46-9CB3-A642697F66D1}" name="Tabela przestawna1" cacheId="0" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6FA09750-9DB6-0B46-9CB3-A642697F66D1}" name="Tabela przestawna1" cacheId="30" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A6:I19" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -17255,9 +17255,9 @@
   <sheetViews>
     <sheetView zoomScale="96" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
     <col min="2" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
@@ -17265,7 +17265,7 @@
     <col min="11" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17303,7 +17303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -17379,7 +17379,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -17417,7 +17417,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -17493,7 +17493,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -17531,7 +17531,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -17569,7 +17569,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -17607,7 +17607,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -17721,7 +17721,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -17759,7 +17759,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -17797,7 +17797,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -17873,7 +17873,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -17911,7 +17911,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -17949,7 +17949,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -17987,7 +17987,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -18063,7 +18063,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -18101,7 +18101,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -18139,7 +18139,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -18177,7 +18177,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -18291,7 +18291,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -18367,7 +18367,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -18405,7 +18405,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -18443,7 +18443,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -18481,7 +18481,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -18519,7 +18519,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -18557,7 +18557,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -18595,7 +18595,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -18633,7 +18633,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -18671,7 +18671,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -18709,7 +18709,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -18747,7 +18747,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -18785,7 +18785,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -18823,7 +18823,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -18861,7 +18861,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -18899,7 +18899,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -18937,7 +18937,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -18975,7 +18975,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -19051,7 +19051,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -19089,7 +19089,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -19127,7 +19127,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -19165,7 +19165,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -19203,7 +19203,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -19241,7 +19241,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -19279,7 +19279,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -19317,7 +19317,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -19355,7 +19355,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>78</v>
       </c>
@@ -19393,7 +19393,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -19431,7 +19431,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>80</v>
       </c>
@@ -19469,7 +19469,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>81</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -19545,7 +19545,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>83</v>
       </c>
@@ -19583,7 +19583,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>84</v>
       </c>
@@ -19621,7 +19621,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -19697,7 +19697,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>89</v>
       </c>
@@ -19735,7 +19735,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>90</v>
       </c>
@@ -19773,7 +19773,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>91</v>
       </c>
@@ -19811,7 +19811,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>92</v>
       </c>
@@ -19849,7 +19849,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>93</v>
       </c>
@@ -19887,7 +19887,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -19925,7 +19925,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>95</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>96</v>
       </c>
@@ -20001,7 +20001,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>98</v>
       </c>
@@ -20039,7 +20039,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>99</v>
       </c>
@@ -20077,7 +20077,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>100</v>
       </c>
@@ -20115,7 +20115,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>101</v>
       </c>
@@ -20153,7 +20153,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>102</v>
       </c>
@@ -20191,7 +20191,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -20229,7 +20229,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>104</v>
       </c>
@@ -20267,7 +20267,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>105</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -20343,7 +20343,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>107</v>
       </c>
@@ -20381,7 +20381,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>109</v>
       </c>
@@ -20419,7 +20419,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>110</v>
       </c>
@@ -20457,7 +20457,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>111</v>
       </c>
@@ -20495,7 +20495,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>112</v>
       </c>
@@ -20533,7 +20533,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -20571,7 +20571,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>114</v>
       </c>
@@ -20609,7 +20609,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -20647,7 +20647,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>116</v>
       </c>
@@ -20685,7 +20685,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -20723,7 +20723,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>118</v>
       </c>
@@ -20761,7 +20761,7 @@
         <v>0.60483365099999997</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>120</v>
       </c>
@@ -20799,7 +20799,7 @@
         <v>0.71489915699999995</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>121</v>
       </c>
@@ -20837,7 +20837,7 @@
         <v>0.80048468500000003</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>122</v>
       </c>
@@ -20875,7 +20875,7 @@
         <v>0.87261131599999997</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>123</v>
       </c>
@@ -20913,7 +20913,7 @@
         <v>0.92230750299999997</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>124</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>0.95828490799999999</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>125</v>
       </c>
@@ -20989,7 +20989,7 @@
         <v>0.97306663999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>126</v>
       </c>
@@ -21027,7 +21027,7 @@
         <v>0.98344294200000004</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>127</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>0.99302958900000005</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>128</v>
       </c>
@@ -21103,7 +21103,7 @@
         <v>0.71470529999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>129</v>
       </c>
@@ -21141,7 +21141,7 @@
         <v>0.73587247700000002</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>130</v>
       </c>
@@ -21179,7 +21179,7 @@
         <v>0.77049951500000002</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>131</v>
       </c>
@@ -21217,7 +21217,7 @@
         <v>0.82743926400000001</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>132</v>
       </c>
@@ -21255,7 +21255,7 @@
         <v>0.88724133500000002</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>133</v>
       </c>
@@ -21293,7 +21293,7 @@
         <v>0.93465705099999996</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>134</v>
       </c>
@@ -21331,7 +21331,7 @@
         <v>0.95652957699999996</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>135</v>
       </c>
@@ -21369,7 +21369,7 @@
         <v>0.97461492699999996</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>136</v>
       </c>
@@ -21407,7 +21407,7 @@
         <v>0.99102257699999996</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>137</v>
       </c>
@@ -21445,7 +21445,7 @@
         <v>0.59580348100000002</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>138</v>
       </c>
@@ -21483,7 +21483,7 @@
         <v>0.65594479699999997</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>139</v>
       </c>
@@ -21521,7 +21521,7 @@
         <v>0.73749982599999997</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>140</v>
       </c>
@@ -21559,7 +21559,7 @@
         <v>0.82285379599999997</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>141</v>
       </c>
@@ -21597,7 +21597,7 @@
         <v>0.89071498599999999</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>142</v>
       </c>
@@ -21635,7 +21635,7 @@
         <v>0.94348040499999997</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>143</v>
       </c>
@@ -21673,7 +21673,7 @@
         <v>0.96530851399999995</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>144</v>
       </c>
@@ -21711,7 +21711,7 @@
         <v>0.98018609300000004</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>145</v>
       </c>
@@ -21749,7 +21749,7 @@
         <v>0.99271187699999996</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>146</v>
       </c>
@@ -21787,7 +21787,7 @@
         <v>0.78230217000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>147</v>
       </c>
@@ -21825,7 +21825,7 @@
         <v>0.86183274300000001</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>148</v>
       </c>
@@ -21863,7 +21863,7 @@
         <v>0.90587359000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>149</v>
       </c>
@@ -21901,7 +21901,7 @@
         <v>0.934824239</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>150</v>
       </c>
@@ -21939,7 +21939,7 @@
         <v>0.95325013400000003</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>151</v>
       </c>
@@ -21977,7 +21977,7 @@
         <v>0.96569611700000002</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>152</v>
       </c>
@@ -22015,7 +22015,7 @@
         <v>0.97133628000000005</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>153</v>
       </c>
@@ -22053,7 +22053,7 @@
         <v>0.97779191099999996</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>154</v>
       </c>
@@ -22091,7 +22091,7 @@
         <v>0.98978401100000002</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>155</v>
       </c>
@@ -22129,7 +22129,7 @@
         <v>0.67222535299999997</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>156</v>
       </c>
@@ -22167,7 +22167,7 @@
         <v>0.80775095399999997</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>157</v>
       </c>
@@ -22205,7 +22205,7 @@
         <v>0.88934015399999999</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>158</v>
       </c>
@@ -22243,7 +22243,7 @@
         <v>0.94107397000000004</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>159</v>
       </c>
@@ -22281,7 +22281,7 @@
         <v>0.96707190600000004</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>160</v>
       </c>
@@ -22319,7 +22319,7 @@
         <v>0.98193145500000001</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>161</v>
       </c>
@@ -22357,7 +22357,7 @@
         <v>0.98709866700000004</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>162</v>
       </c>
@@ -22395,7 +22395,7 @@
         <v>0.99052780100000004</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>163</v>
       </c>
@@ -22433,7 +22433,7 @@
         <v>0.99364207999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>164</v>
       </c>
@@ -22471,7 +22471,7 @@
         <v>0.74251462499999998</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>165</v>
       </c>
@@ -22509,7 +22509,7 @@
         <v>0.85430720199999999</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>166</v>
       </c>
@@ -22547,7 +22547,7 @@
         <v>0.91269639999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>167</v>
       </c>
@@ -22585,7 +22585,7 @@
         <v>0.94847335600000005</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>168</v>
       </c>
@@ -22623,7 +22623,7 @@
         <v>0.96883145400000004</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>169</v>
       </c>
@@ -22661,7 +22661,7 @@
         <v>0.98058863600000001</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>170</v>
       </c>
@@ -22699,7 +22699,7 @@
         <v>0.98488807300000003</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>171</v>
       </c>
@@ -22737,7 +22737,7 @@
         <v>0.988228942</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>172</v>
       </c>
@@ -22775,7 +22775,7 @@
         <v>0.99214795099999997</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>173</v>
       </c>
@@ -22813,7 +22813,7 @@
         <v>0.81103941800000001</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>174</v>
       </c>
@@ -22851,7 +22851,7 @@
         <v>0.87955644499999996</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>175</v>
       </c>
@@ -22889,7 +22889,7 @@
         <v>0.918919877</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>176</v>
       </c>
@@ -22927,7 +22927,7 @@
         <v>0.94636671900000002</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>177</v>
       </c>
@@ -22965,7 +22965,7 @@
         <v>0.96510293599999997</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>178</v>
       </c>
@@ -23003,7 +23003,7 @@
         <v>0.97865722799999999</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>179</v>
       </c>
@@ -23041,7 +23041,7 @@
         <v>0.98490784600000003</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>180</v>
       </c>
@@ -23079,7 +23079,7 @@
         <v>0.98992028700000001</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>181</v>
       </c>
@@ -23117,7 +23117,7 @@
         <v>0.99551246800000004</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>182</v>
       </c>
@@ -23155,7 +23155,7 @@
         <v>0.741537487</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>183</v>
       </c>
@@ -23193,7 +23193,7 @@
         <v>0.832416516</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>184</v>
       </c>
@@ -23231,7 +23231,7 @@
         <v>0.89180893699999997</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>185</v>
       </c>
@@ -23269,7 +23269,7 @@
         <v>0.93616336700000002</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>186</v>
       </c>
@@ -23307,7 +23307,7 @@
         <v>0.96236776000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>187</v>
       </c>
@@ -23345,7 +23345,7 @@
         <v>0.98018498600000004</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>188</v>
       </c>
@@ -23383,7 +23383,7 @@
         <v>0.98725009699999999</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>189</v>
       </c>
@@ -23421,7 +23421,7 @@
         <v>0.99221237200000001</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>190</v>
       </c>
@@ -23459,7 +23459,7 @@
         <v>0.99666592899999995</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>191</v>
       </c>
@@ -23497,7 +23497,7 @@
         <v>0.76742051</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>192</v>
       </c>
@@ -23535,7 +23535,7 @@
         <v>0.85034953999999996</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>193</v>
       </c>
@@ -23573,7 +23573,7 @@
         <v>0.90360249199999998</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>194</v>
       </c>
@@ -23611,7 +23611,7 @@
         <v>0.94020385900000003</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>195</v>
       </c>
@@ -23649,7 +23649,7 @@
         <v>0.963433663</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>196</v>
       </c>
@@ -23687,7 +23687,7 @@
         <v>0.97943205</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>197</v>
       </c>
@@ -23725,7 +23725,7 @@
         <v>0.98632197600000004</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>198</v>
       </c>
@@ -23763,7 +23763,7 @@
         <v>0.99128540099999995</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>199</v>
       </c>
@@ -23801,7 +23801,7 @@
         <v>0.99630577600000003</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>200</v>
       </c>
@@ -23839,7 +23839,7 @@
         <v>0.74514926699999995</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>202</v>
       </c>
@@ -23877,7 +23877,7 @@
         <v>0.74514926699999995</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>204</v>
       </c>
@@ -23915,7 +23915,7 @@
         <v>0.84051576800000005</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>205</v>
       </c>
@@ -23953,7 +23953,7 @@
         <v>0.84051576800000005</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>206</v>
       </c>
@@ -23991,7 +23991,7 @@
         <v>0.88064666000000003</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>207</v>
       </c>
@@ -24029,7 +24029,7 @@
         <v>0.88064666000000003</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>208</v>
       </c>
@@ -24067,7 +24067,7 @@
         <v>0.90199115799999996</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>209</v>
       </c>
@@ -24105,7 +24105,7 @@
         <v>0.90199115799999996</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>210</v>
       </c>
@@ -24143,7 +24143,7 @@
         <v>0.91653706000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>211</v>
       </c>
@@ -24181,7 +24181,7 @@
         <v>0.91653706000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>212</v>
       </c>
@@ -24219,7 +24219,7 @@
         <v>0.92866804700000005</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>213</v>
       </c>
@@ -24257,7 +24257,7 @@
         <v>0.92866804700000005</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>214</v>
       </c>
@@ -24295,7 +24295,7 @@
         <v>0.94211969299999998</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>215</v>
       </c>
@@ -24333,7 +24333,7 @@
         <v>0.94211969299999998</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>216</v>
       </c>
@@ -24371,7 +24371,7 @@
         <v>0.95730316199999999</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>217</v>
       </c>
@@ -24409,7 +24409,7 @@
         <v>0.95730316199999999</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>218</v>
       </c>
@@ -24447,7 +24447,7 @@
         <v>0.97738747699999995</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>219</v>
       </c>
@@ -24485,7 +24485,7 @@
         <v>0.97738747699999995</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>220</v>
       </c>
@@ -24523,7 +24523,7 @@
         <v>0.730887446</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>221</v>
       </c>
@@ -24561,7 +24561,7 @@
         <v>0.730887446</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>222</v>
       </c>
@@ -24599,7 +24599,7 @@
         <v>0.78621391500000004</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>223</v>
       </c>
@@ -24637,7 +24637,7 @@
         <v>0.78621391500000004</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>224</v>
       </c>
@@ -24675,7 +24675,7 @@
         <v>0.82012992299999998</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>225</v>
       </c>
@@ -24713,7 +24713,7 @@
         <v>0.82012992299999998</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>226</v>
       </c>
@@ -24751,7 +24751,7 @@
         <v>0.84122339499999998</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>227</v>
       </c>
@@ -24789,7 +24789,7 @@
         <v>0.84122339499999998</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>228</v>
       </c>
@@ -24827,7 +24827,7 @@
         <v>0.85767705599999999</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>229</v>
       </c>
@@ -24865,7 +24865,7 @@
         <v>0.85767705599999999</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>230</v>
       </c>
@@ -24903,7 +24903,7 @@
         <v>0.87396928699999998</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>231</v>
       </c>
@@ -24941,7 +24941,7 @@
         <v>0.87396928699999998</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>232</v>
       </c>
@@ -24979,7 +24979,7 @@
         <v>0.89529542699999998</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>233</v>
       </c>
@@ -25017,7 +25017,7 @@
         <v>0.89529542699999998</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>234</v>
       </c>
@@ -25055,7 +25055,7 @@
         <v>0.92181920900000003</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>235</v>
       </c>
@@ -25093,7 +25093,7 @@
         <v>0.92181920900000003</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>236</v>
       </c>
@@ -25131,7 +25131,7 @@
         <v>0.95921154200000003</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>237</v>
       </c>
@@ -25169,7 +25169,7 @@
         <v>0.95921154200000003</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>238</v>
       </c>
@@ -25207,7 +25207,7 @@
         <v>0.677571072</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>239</v>
       </c>
@@ -25245,7 +25245,7 @@
         <v>0.677571072</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>240</v>
       </c>
@@ -25283,7 +25283,7 @@
         <v>0.76634885399999997</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>241</v>
       </c>
@@ -25321,7 +25321,7 @@
         <v>0.76634885399999997</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>242</v>
       </c>
@@ -25359,7 +25359,7 @@
         <v>0.81191858900000002</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>243</v>
       </c>
@@ -25397,7 +25397,7 @@
         <v>0.81191858900000002</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>244</v>
       </c>
@@ -25435,7 +25435,7 @@
         <v>0.84010943199999999</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>245</v>
       </c>
@@ -25473,7 +25473,7 @@
         <v>0.84010943199999999</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>246</v>
       </c>
@@ -25511,7 +25511,7 @@
         <v>0.860832559</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>247</v>
       </c>
@@ -25549,7 +25549,7 @@
         <v>0.860832559</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>248</v>
       </c>
@@ -25587,7 +25587,7 @@
         <v>0.87960432300000002</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>249</v>
       </c>
@@ -25625,7 +25625,7 @@
         <v>0.87960432300000002</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>250</v>
       </c>
@@ -25663,7 +25663,7 @@
         <v>0.90213950600000004</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>251</v>
       </c>
@@ -25701,7 +25701,7 @@
         <v>0.90213950600000004</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>252</v>
       </c>
@@ -25739,7 +25739,7 @@
         <v>0.92921087300000005</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>253</v>
       </c>
@@ -25777,7 +25777,7 @@
         <v>0.92921087300000005</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>254</v>
       </c>
@@ -25815,7 +25815,7 @@
         <v>0.96476724999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>255</v>
       </c>
@@ -25853,7 +25853,7 @@
         <v>0.96476724999999997</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>256</v>
       </c>
@@ -25891,7 +25891,7 @@
         <v>0.84988173600000005</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>257</v>
       </c>
@@ -25929,7 +25929,7 @@
         <v>0.84988173600000005</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>258</v>
       </c>
@@ -25967,7 +25967,7 @@
         <v>0.90045487099999999</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>259</v>
       </c>
@@ -26005,7 +26005,7 @@
         <v>0.90045487099999999</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>260</v>
       </c>
@@ -26043,7 +26043,7 @@
         <v>0.92088628699999997</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>261</v>
       </c>
@@ -26081,7 +26081,7 @@
         <v>0.92088628699999997</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>262</v>
       </c>
@@ -26119,7 +26119,7 @@
         <v>0.93231294799999997</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>263</v>
       </c>
@@ -26157,7 +26157,7 @@
         <v>0.93231294799999997</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>264</v>
       </c>
@@ -26195,7 +26195,7 @@
         <v>0.94059658000000002</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>265</v>
       </c>
@@ -26233,7 +26233,7 @@
         <v>0.94059658000000002</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>266</v>
       </c>
@@ -26271,7 +26271,7 @@
         <v>0.94786090499999998</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>267</v>
       </c>
@@ -26309,7 +26309,7 @@
         <v>0.94786090499999998</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>268</v>
       </c>
@@ -26347,7 +26347,7 @@
         <v>0.95635193900000004</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>269</v>
       </c>
@@ -26385,7 +26385,7 @@
         <v>0.95635193900000004</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>270</v>
       </c>
@@ -26423,7 +26423,7 @@
         <v>0.96617739400000002</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>271</v>
       </c>
@@ -26461,7 +26461,7 @@
         <v>0.96617739400000002</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>272</v>
       </c>
@@ -26499,7 +26499,7 @@
         <v>0.97954281099999996</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>273</v>
       </c>
@@ -26537,7 +26537,7 @@
         <v>0.97954281099999996</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>274</v>
       </c>
@@ -26575,7 +26575,7 @@
         <v>0.77635848399999996</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>275</v>
       </c>
@@ -26613,7 +26613,7 @@
         <v>0.77635848399999996</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>276</v>
       </c>
@@ -26651,7 +26651,7 @@
         <v>0.86524295100000004</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>277</v>
       </c>
@@ -26689,7 +26689,7 @@
         <v>0.86524295100000004</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>278</v>
       </c>
@@ -26727,7 +26727,7 @@
         <v>0.89756382800000001</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>279</v>
       </c>
@@ -26765,7 +26765,7 @@
         <v>0.89756382800000001</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>280</v>
       </c>
@@ -26803,7 +26803,7 @@
         <v>0.91626039800000003</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>281</v>
       </c>
@@ -26841,7 +26841,7 @@
         <v>0.91626039800000003</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>282</v>
       </c>
@@ -26879,7 +26879,7 @@
         <v>0.92992887499999999</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>283</v>
       </c>
@@ -26917,7 +26917,7 @@
         <v>0.92992887499999999</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>284</v>
       </c>
@@ -26955,7 +26955,7 @@
         <v>0.94249259900000004</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>285</v>
       </c>
@@ -26993,7 +26993,7 @@
         <v>0.94249259900000004</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>286</v>
       </c>
@@ -27031,7 +27031,7 @@
         <v>0.95654484200000001</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>287</v>
       </c>
@@ -27069,7 +27069,7 @@
         <v>0.95654484200000001</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>288</v>
       </c>
@@ -27107,7 +27107,7 @@
         <v>0.97171218199999998</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>289</v>
       </c>
@@ -27145,7 +27145,7 @@
         <v>0.97171218199999998</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>290</v>
       </c>
@@ -27183,7 +27183,7 @@
         <v>0.98937437299999997</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>291</v>
       </c>
@@ -27221,7 +27221,7 @@
         <v>0.98937437299999997</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>292</v>
       </c>
@@ -27259,7 +27259,7 @@
         <v>0.81969486499999999</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>293</v>
       </c>
@@ -27297,7 +27297,7 @@
         <v>0.81969486499999999</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>294</v>
       </c>
@@ -27335,7 +27335,7 @@
         <v>0.88269245299999999</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>295</v>
       </c>
@@ -27373,7 +27373,7 @@
         <v>0.88269245299999999</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>296</v>
       </c>
@@ -27411,7 +27411,7 @@
         <v>0.91150786500000003</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>297</v>
       </c>
@@ -27449,7 +27449,7 @@
         <v>0.91150786500000003</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>298</v>
       </c>
@@ -27487,7 +27487,7 @@
         <v>0.928604859</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>299</v>
       </c>
@@ -27525,7 +27525,7 @@
         <v>0.928604859</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>300</v>
       </c>
@@ -27563,7 +27563,7 @@
         <v>0.94034933899999995</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>301</v>
       </c>
@@ -27601,7 +27601,7 @@
         <v>0.94034933899999995</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>302</v>
       </c>
@@ -27639,7 +27639,7 @@
         <v>0.95040040299999995</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>303</v>
       </c>
@@ -27677,7 +27677,7 @@
         <v>0.95040040299999995</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>304</v>
       </c>
@@ -27715,7 +27715,7 @@
         <v>0.96126379100000003</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>305</v>
       </c>
@@ -27753,7 +27753,7 @@
         <v>0.96126379100000003</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>306</v>
       </c>
@@ -27791,7 +27791,7 @@
         <v>0.97339021999999997</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>307</v>
       </c>
@@ -27829,7 +27829,7 @@
         <v>0.97339021999999997</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>308</v>
       </c>
@@ -27867,7 +27867,7 @@
         <v>0.987846055</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>309</v>
       </c>
@@ -27905,7 +27905,7 @@
         <v>0.987846055</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>310</v>
       </c>
@@ -27943,7 +27943,7 @@
         <v>0.86258027500000001</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>311</v>
       </c>
@@ -27981,7 +27981,7 @@
         <v>0.86258027500000001</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>312</v>
       </c>
@@ -28019,7 +28019,7 @@
         <v>0.91901596100000005</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>313</v>
       </c>
@@ -28057,7 +28057,7 @@
         <v>0.91901596100000005</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>314</v>
       </c>
@@ -28095,7 +28095,7 @@
         <v>0.94077713699999999</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>315</v>
       </c>
@@ -28133,7 +28133,7 @@
         <v>0.94077713699999999</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>316</v>
       </c>
@@ -28171,7 +28171,7 @@
         <v>0.95235536200000004</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>317</v>
       </c>
@@ -28209,7 +28209,7 @@
         <v>0.95235536200000004</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>318</v>
       </c>
@@ -28247,7 +28247,7 @@
         <v>0.96029798700000002</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>319</v>
       </c>
@@ -28285,7 +28285,7 @@
         <v>0.96029798700000002</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>320</v>
       </c>
@@ -28323,7 +28323,7 @@
         <v>0.96679266500000005</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>321</v>
       </c>
@@ -28361,7 +28361,7 @@
         <v>0.96679266500000005</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>322</v>
       </c>
@@ -28399,7 +28399,7 @@
         <v>0.97371296399999996</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>323</v>
       </c>
@@ -28437,7 +28437,7 @@
         <v>0.97371296399999996</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>324</v>
       </c>
@@ -28475,7 +28475,7 @@
         <v>0.98101091299999998</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>325</v>
       </c>
@@ -28513,7 +28513,7 @@
         <v>0.98101091299999998</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>326</v>
       </c>
@@ -28551,7 +28551,7 @@
         <v>0.98964456300000003</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>327</v>
       </c>
@@ -28589,7 +28589,7 @@
         <v>0.98964456300000003</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>328</v>
       </c>
@@ -28627,7 +28627,7 @@
         <v>0.80098502800000004</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>329</v>
       </c>
@@ -28665,7 +28665,7 @@
         <v>0.80098502800000004</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>330</v>
       </c>
@@ -28703,7 +28703,7 @@
         <v>0.87408709900000003</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>331</v>
       </c>
@@ -28741,7 +28741,7 @@
         <v>0.87408709900000003</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>332</v>
       </c>
@@ -28779,7 +28779,7 @@
         <v>0.90858695700000003</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>333</v>
       </c>
@@ -28817,7 +28817,7 @@
         <v>0.90858695700000003</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>334</v>
       </c>
@@ -28855,7 +28855,7 @@
         <v>0.92749815899999999</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>335</v>
       </c>
@@ -28893,7 +28893,7 @@
         <v>0.92749815899999999</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>336</v>
       </c>
@@ -28931,7 +28931,7 @@
         <v>0.93947708299999999</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>337</v>
       </c>
@@ -28969,7 +28969,7 @@
         <v>0.93947708299999999</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>338</v>
       </c>
@@ -29007,7 +29007,7 @@
         <v>0.94905173899999995</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>339</v>
       </c>
@@ -29045,7 +29045,7 @@
         <v>0.94905173899999995</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>340</v>
       </c>
@@ -29083,7 +29083,7 @@
         <v>0.95987375200000002</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>341</v>
       </c>
@@ -29121,7 +29121,7 @@
         <v>0.95987375200000002</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>342</v>
       </c>
@@ -29159,7 +29159,7 @@
         <v>0.97264755899999999</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>343</v>
       </c>
@@ -29197,7 +29197,7 @@
         <v>0.97264755899999999</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>344</v>
       </c>
@@ -29235,7 +29235,7 @@
         <v>0.98705522499999998</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>345</v>
       </c>
@@ -29273,7 +29273,7 @@
         <v>0.98705522499999998</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>346</v>
       </c>
@@ -29311,7 +29311,7 @@
         <v>0.83375186800000001</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>347</v>
       </c>
@@ -29349,7 +29349,7 @@
         <v>0.83375186800000001</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>348</v>
       </c>
@@ -29387,7 +29387,7 @@
         <v>0.897582294</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>349</v>
       </c>
@@ -29425,7 +29425,7 @@
         <v>0.897582294</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>350</v>
       </c>
@@ -29463,7 +29463,7 @@
         <v>0.92309062500000005</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>351</v>
       </c>
@@ -29501,7 +29501,7 @@
         <v>0.92309062500000005</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>352</v>
       </c>
@@ -29539,7 +29539,7 @@
         <v>0.93701417099999995</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>353</v>
       </c>
@@ -29577,7 +29577,7 @@
         <v>0.93701417099999995</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>354</v>
       </c>
@@ -29615,7 +29615,7 @@
         <v>0.94713378599999998</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>355</v>
       </c>
@@ -29653,7 +29653,7 @@
         <v>0.94713378599999998</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>356</v>
       </c>
@@ -29691,7 +29691,7 @@
         <v>0.955759421</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>357</v>
       </c>
@@ -29729,7 +29729,7 @@
         <v>0.955759421</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>358</v>
       </c>
@@ -29767,7 +29767,7 @@
         <v>0.96529513600000005</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>359</v>
       </c>
@@ -29805,7 +29805,7 @@
         <v>0.96529513600000005</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>360</v>
       </c>
@@ -29843,7 +29843,7 @@
         <v>0.97567225000000002</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>361</v>
       </c>
@@ -29881,7 +29881,7 @@
         <v>0.97567225000000002</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>362</v>
       </c>
@@ -29919,7 +29919,7 @@
         <v>0.98777227300000003</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>363</v>
       </c>
@@ -29957,7 +29957,7 @@
         <v>0.98777227300000003</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>364</v>
       </c>
@@ -29995,7 +29995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>366</v>
       </c>
@@ -30033,7 +30033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>367</v>
       </c>
@@ -30071,7 +30071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>368</v>
       </c>
@@ -30109,7 +30109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>369</v>
       </c>
@@ -30147,7 +30147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>370</v>
       </c>
@@ -30185,7 +30185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>371</v>
       </c>
@@ -30223,7 +30223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>372</v>
       </c>
@@ -30261,7 +30261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>373</v>
       </c>
@@ -30299,7 +30299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>374</v>
       </c>
@@ -30337,7 +30337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>375</v>
       </c>
@@ -30375,7 +30375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>376</v>
       </c>
@@ -30413,7 +30413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>377</v>
       </c>
@@ -30451,7 +30451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>378</v>
       </c>
@@ -30489,7 +30489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>379</v>
       </c>
@@ -30527,7 +30527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>380</v>
       </c>
@@ -30565,7 +30565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>381</v>
       </c>
@@ -30603,7 +30603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>382</v>
       </c>
@@ -30641,7 +30641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>383</v>
       </c>
@@ -30679,7 +30679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>384</v>
       </c>
@@ -30717,7 +30717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>385</v>
       </c>
@@ -30755,7 +30755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>386</v>
       </c>
@@ -30793,7 +30793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>387</v>
       </c>
@@ -30831,7 +30831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>388</v>
       </c>
@@ -30869,7 +30869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>389</v>
       </c>
@@ -30907,7 +30907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>390</v>
       </c>
@@ -30945,7 +30945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>391</v>
       </c>
@@ -30983,7 +30983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>392</v>
       </c>
@@ -31021,7 +31021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -31059,7 +31059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>394</v>
       </c>
@@ -31097,7 +31097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -31135,7 +31135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>396</v>
       </c>
@@ -31173,7 +31173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>397</v>
       </c>
@@ -31211,7 +31211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>398</v>
       </c>
@@ -31249,7 +31249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -31287,7 +31287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -31325,7 +31325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -31363,7 +31363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -31401,7 +31401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -31439,7 +31439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -31477,7 +31477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -31515,7 +31515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -31553,7 +31553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -31591,7 +31591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -31629,7 +31629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -31667,7 +31667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -31705,7 +31705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>411</v>
       </c>
@@ -31743,7 +31743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>412</v>
       </c>
@@ -31781,7 +31781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>413</v>
       </c>
@@ -31819,7 +31819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>414</v>
       </c>
@@ -31857,7 +31857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>415</v>
       </c>
@@ -31895,7 +31895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>416</v>
       </c>
@@ -31933,7 +31933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>417</v>
       </c>
@@ -31971,7 +31971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>418</v>
       </c>
@@ -32009,7 +32009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>419</v>
       </c>
@@ -32047,7 +32047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>420</v>
       </c>
@@ -32085,7 +32085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>421</v>
       </c>
@@ -32123,7 +32123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>422</v>
       </c>
@@ -32161,7 +32161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>423</v>
       </c>
@@ -32199,7 +32199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>424</v>
       </c>
@@ -32237,7 +32237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>425</v>
       </c>
@@ -32275,7 +32275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>426</v>
       </c>
@@ -32313,7 +32313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>427</v>
       </c>
@@ -32351,7 +32351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>428</v>
       </c>
@@ -32389,7 +32389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>429</v>
       </c>
@@ -32427,7 +32427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>430</v>
       </c>
@@ -32465,7 +32465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>431</v>
       </c>
@@ -32503,7 +32503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>432</v>
       </c>
@@ -32541,7 +32541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>433</v>
       </c>
@@ -32579,7 +32579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>434</v>
       </c>
@@ -32617,7 +32617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>435</v>
       </c>
@@ -32655,7 +32655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>436</v>
       </c>
@@ -32693,7 +32693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>437</v>
       </c>
@@ -32731,7 +32731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>438</v>
       </c>
@@ -32769,7 +32769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>439</v>
       </c>
@@ -32807,7 +32807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>440</v>
       </c>
@@ -32845,7 +32845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>441</v>
       </c>
@@ -32883,7 +32883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>442</v>
       </c>
@@ -32921,7 +32921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>443</v>
       </c>
@@ -32959,7 +32959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>444</v>
       </c>
@@ -32997,7 +32997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>445</v>
       </c>
@@ -33035,7 +33035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>446</v>
       </c>
@@ -33073,7 +33073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>447</v>
       </c>
@@ -33111,7 +33111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>448</v>
       </c>
@@ -33149,7 +33149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>449</v>
       </c>
@@ -33187,7 +33187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>450</v>
       </c>
@@ -33225,7 +33225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>451</v>
       </c>
@@ -33263,7 +33263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>452</v>
       </c>
@@ -33301,7 +33301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>453</v>
       </c>
@@ -33339,7 +33339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>454</v>
       </c>
@@ -33377,7 +33377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>455</v>
       </c>
@@ -33415,7 +33415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>456</v>
       </c>
@@ -33453,7 +33453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>457</v>
       </c>
@@ -33491,7 +33491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>458</v>
       </c>
@@ -33529,7 +33529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>459</v>
       </c>
@@ -33567,7 +33567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>460</v>
       </c>
@@ -33605,7 +33605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>461</v>
       </c>
@@ -33643,7 +33643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>462</v>
       </c>
@@ -33681,7 +33681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>463</v>
       </c>
@@ -33719,7 +33719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>464</v>
       </c>
@@ -33757,7 +33757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>465</v>
       </c>
@@ -33795,7 +33795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>466</v>
       </c>
@@ -33833,7 +33833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>467</v>
       </c>
@@ -33871,7 +33871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>468</v>
       </c>
@@ -33909,7 +33909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>469</v>
       </c>
@@ -33947,7 +33947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>470</v>
       </c>
@@ -33985,7 +33985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>471</v>
       </c>
@@ -34023,7 +34023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>472</v>
       </c>
@@ -34061,7 +34061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>473</v>
       </c>
@@ -34099,7 +34099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>474</v>
       </c>
@@ -34137,7 +34137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>475</v>
       </c>
@@ -34175,7 +34175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>476</v>
       </c>
@@ -34213,7 +34213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>477</v>
       </c>
@@ -34251,7 +34251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>478</v>
       </c>
@@ -34289,7 +34289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>479</v>
       </c>
@@ -34327,7 +34327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>480</v>
       </c>
@@ -34365,7 +34365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>481</v>
       </c>
@@ -34403,7 +34403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>482</v>
       </c>
@@ -34441,7 +34441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>483</v>
       </c>
@@ -34479,7 +34479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>484</v>
       </c>
@@ -34517,7 +34517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>485</v>
       </c>
@@ -34555,7 +34555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>486</v>
       </c>
@@ -34593,7 +34593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>487</v>
       </c>
@@ -34631,7 +34631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>488</v>
       </c>
@@ -34669,7 +34669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>489</v>
       </c>
@@ -34707,7 +34707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>490</v>
       </c>
@@ -34745,7 +34745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>491</v>
       </c>
@@ -34783,7 +34783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>492</v>
       </c>
@@ -34821,7 +34821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>493</v>
       </c>
@@ -34859,7 +34859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>494</v>
       </c>
@@ -34897,7 +34897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>495</v>
       </c>
@@ -34935,7 +34935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>496</v>
       </c>
@@ -34973,7 +34973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>497</v>
       </c>
@@ -35011,7 +35011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>498</v>
       </c>
@@ -35049,7 +35049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>499</v>
       </c>
@@ -35087,7 +35087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>500</v>
       </c>
@@ -35125,7 +35125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>501</v>
       </c>
@@ -35163,7 +35163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>502</v>
       </c>
@@ -35201,7 +35201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>503</v>
       </c>
@@ -35239,7 +35239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>504</v>
       </c>
@@ -35277,7 +35277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>505</v>
       </c>
@@ -35315,7 +35315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>506</v>
       </c>
@@ -35353,7 +35353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>507</v>
       </c>
@@ -35391,7 +35391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>508</v>
       </c>
@@ -35429,7 +35429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>509</v>
       </c>
@@ -35467,7 +35467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>510</v>
       </c>
@@ -35505,7 +35505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>511</v>
       </c>
@@ -35543,7 +35543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>512</v>
       </c>
@@ -35581,7 +35581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>513</v>
       </c>
@@ -35619,7 +35619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>514</v>
       </c>
@@ -35657,7 +35657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>515</v>
       </c>
@@ -35695,7 +35695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>516</v>
       </c>
@@ -35733,7 +35733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>517</v>
       </c>
@@ -35771,7 +35771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>518</v>
       </c>
@@ -35809,7 +35809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>519</v>
       </c>
@@ -35847,7 +35847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>520</v>
       </c>
@@ -35885,7 +35885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>521</v>
       </c>
@@ -35923,7 +35923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>522</v>
       </c>
@@ -35961,7 +35961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>523</v>
       </c>
@@ -35999,7 +35999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>524</v>
       </c>
@@ -36037,7 +36037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>525</v>
       </c>
@@ -36075,7 +36075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>526</v>
       </c>
@@ -36113,7 +36113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>527</v>
       </c>
@@ -36151,7 +36151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>528</v>
       </c>
@@ -36189,7 +36189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>529</v>
       </c>
@@ -36227,7 +36227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>530</v>
       </c>
@@ -36265,7 +36265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>531</v>
       </c>
@@ -36303,7 +36303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>532</v>
       </c>
@@ -36341,7 +36341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>533</v>
       </c>
@@ -36379,7 +36379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>534</v>
       </c>
@@ -36417,7 +36417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>535</v>
       </c>
@@ -36455,7 +36455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>536</v>
       </c>
@@ -36493,7 +36493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>537</v>
       </c>
@@ -36531,7 +36531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>538</v>
       </c>
@@ -36569,7 +36569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>539</v>
       </c>
@@ -36607,7 +36607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>540</v>
       </c>
@@ -36645,7 +36645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>541</v>
       </c>
@@ -36683,7 +36683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>542</v>
       </c>
@@ -36721,7 +36721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>543</v>
       </c>
@@ -36759,7 +36759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>544</v>
       </c>
@@ -36797,7 +36797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>627</v>
       </c>
@@ -36835,7 +36835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>628</v>
       </c>
@@ -36873,7 +36873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>629</v>
       </c>
@@ -36911,7 +36911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>630</v>
       </c>
@@ -36949,7 +36949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>631</v>
       </c>
@@ -36987,7 +36987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>632</v>
       </c>
@@ -37025,7 +37025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>633</v>
       </c>
@@ -37063,7 +37063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>634</v>
       </c>
@@ -37101,7 +37101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>635</v>
       </c>
@@ -37139,7 +37139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>636</v>
       </c>
@@ -37177,7 +37177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>637</v>
       </c>
@@ -37215,7 +37215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>638</v>
       </c>
@@ -37253,7 +37253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>639</v>
       </c>
@@ -37291,7 +37291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>640</v>
       </c>
@@ -37329,7 +37329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>641</v>
       </c>
@@ -37367,7 +37367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>642</v>
       </c>
@@ -37405,7 +37405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>643</v>
       </c>
@@ -37443,7 +37443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>644</v>
       </c>
@@ -37481,7 +37481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>645</v>
       </c>
@@ -37519,7 +37519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>646</v>
       </c>
@@ -37557,7 +37557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>647</v>
       </c>
@@ -37595,7 +37595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>648</v>
       </c>
@@ -37633,7 +37633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>649</v>
       </c>
@@ -37671,7 +37671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>650</v>
       </c>
@@ -37709,7 +37709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>651</v>
       </c>
@@ -37747,7 +37747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>652</v>
       </c>
@@ -37785,7 +37785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>653</v>
       </c>
@@ -37823,7 +37823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>654</v>
       </c>
@@ -37861,7 +37861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>655</v>
       </c>
@@ -37899,7 +37899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>656</v>
       </c>
@@ -37937,7 +37937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>657</v>
       </c>
@@ -37975,7 +37975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>658</v>
       </c>
@@ -38013,7 +38013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>659</v>
       </c>
@@ -38051,7 +38051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>660</v>
       </c>
@@ -38089,7 +38089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>661</v>
       </c>
@@ -38127,7 +38127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>662</v>
       </c>
@@ -38165,7 +38165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>663</v>
       </c>
@@ -38203,7 +38203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>664</v>
       </c>
@@ -38241,7 +38241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>665</v>
       </c>
@@ -38279,7 +38279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>666</v>
       </c>
@@ -38317,7 +38317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>667</v>
       </c>
@@ -38355,7 +38355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>668</v>
       </c>
@@ -38393,7 +38393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>669</v>
       </c>
@@ -38431,7 +38431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>670</v>
       </c>
@@ -38469,7 +38469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>671</v>
       </c>
@@ -38507,7 +38507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>672</v>
       </c>
@@ -38545,7 +38545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>673</v>
       </c>
@@ -38583,7 +38583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>674</v>
       </c>
@@ -38621,7 +38621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>675</v>
       </c>
@@ -38659,7 +38659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>676</v>
       </c>
@@ -38697,7 +38697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>677</v>
       </c>
@@ -38735,7 +38735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>678</v>
       </c>
@@ -38773,7 +38773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>679</v>
       </c>
@@ -38811,7 +38811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>680</v>
       </c>
@@ -38849,7 +38849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>681</v>
       </c>
@@ -38887,7 +38887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>682</v>
       </c>
@@ -38925,7 +38925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>683</v>
       </c>
@@ -38963,7 +38963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>684</v>
       </c>
@@ -39001,7 +39001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>685</v>
       </c>
@@ -39039,7 +39039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>686</v>
       </c>
@@ -39077,7 +39077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>687</v>
       </c>
@@ -39115,7 +39115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>688</v>
       </c>
@@ -39153,7 +39153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>689</v>
       </c>
@@ -39191,7 +39191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>690</v>
       </c>
@@ -39229,7 +39229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>691</v>
       </c>
@@ -39267,7 +39267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>692</v>
       </c>
@@ -39305,7 +39305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>693</v>
       </c>
@@ -39343,7 +39343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>694</v>
       </c>
@@ -39381,7 +39381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>695</v>
       </c>
@@ -39419,7 +39419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>696</v>
       </c>
@@ -39457,7 +39457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>697</v>
       </c>
@@ -39495,7 +39495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>698</v>
       </c>
@@ -39533,7 +39533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>699</v>
       </c>
@@ -39571,7 +39571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>700</v>
       </c>
@@ -39609,7 +39609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>701</v>
       </c>
@@ -39647,7 +39647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>702</v>
       </c>
@@ -39685,7 +39685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>703</v>
       </c>
@@ -39723,7 +39723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>704</v>
       </c>
@@ -39761,7 +39761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>705</v>
       </c>
@@ -39799,7 +39799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>706</v>
       </c>
@@ -39837,7 +39837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>707</v>
       </c>
@@ -39875,7 +39875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>546</v>
       </c>
@@ -39913,7 +39913,7 @@
         <v>0.76469498800000002</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>547</v>
       </c>
@@ -39951,7 +39951,7 @@
         <v>0.82940026700000002</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>548</v>
       </c>
@@ -39989,7 +39989,7 @@
         <v>0.86584713099999999</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>549</v>
       </c>
@@ -40027,7 +40027,7 @@
         <v>0.89160209899999998</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>550</v>
       </c>
@@ -40065,7 +40065,7 @@
         <v>0.91258894300000004</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>551</v>
       </c>
@@ -40103,7 +40103,7 @@
         <v>0.92559498799999995</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>552</v>
       </c>
@@ -40141,7 +40141,7 @@
         <v>0.93931725799999999</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>553</v>
       </c>
@@ -40179,7 +40179,7 @@
         <v>0.95964364700000004</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>554</v>
       </c>
@@ -40217,7 +40217,7 @@
         <v>0.98603127999999995</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>555</v>
       </c>
@@ -40255,7 +40255,7 @@
         <v>0.75959782799999997</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>556</v>
       </c>
@@ -40293,7 +40293,7 @@
         <v>0.79500078399999996</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>557</v>
       </c>
@@ -40331,7 +40331,7 @@
         <v>0.82521221499999997</v>
       </c>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>558</v>
       </c>
@@ -40369,7 +40369,7 @@
         <v>0.85367628600000001</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>559</v>
       </c>
@@ -40407,7 +40407,7 @@
         <v>0.87334996799999998</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>560</v>
       </c>
@@ -40445,7 +40445,7 @@
         <v>0.88971093400000001</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>561</v>
       </c>
@@ -40483,7 +40483,7 @@
         <v>0.91175181000000005</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>562</v>
       </c>
@@ -40521,7 +40521,7 @@
         <v>0.94496068099999997</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>563</v>
       </c>
@@ -40559,7 +40559,7 @@
         <v>0.97833015999999995</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>564</v>
       </c>
@@ -40597,7 +40597,7 @@
         <v>0.70381563700000005</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>565</v>
       </c>
@@ -40635,7 +40635,7 @@
         <v>0.771109775</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>566</v>
       </c>
@@ -40673,7 +40673,7 @@
         <v>0.81795485000000001</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>567</v>
       </c>
@@ -40711,7 +40711,7 @@
         <v>0.85786003399999999</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>568</v>
       </c>
@@ -40749,7 +40749,7 @@
         <v>0.88181086799999997</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>569</v>
       </c>
@@ -40787,7 +40787,7 @@
         <v>0.90565849300000001</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>570</v>
       </c>
@@ -40825,7 +40825,7 @@
         <v>0.92026222400000002</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>571</v>
       </c>
@@ -40863,7 +40863,7 @@
         <v>0.95303708799999998</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>572</v>
       </c>
@@ -40901,7 +40901,7 @@
         <v>0.98459421000000003</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>573</v>
       </c>
@@ -40939,7 +40939,7 @@
         <v>0.87736852799999998</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>574</v>
       </c>
@@ -40977,7 +40977,7 @@
         <v>0.90796803999999998</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>575</v>
       </c>
@@ -41015,7 +41015,7 @@
         <v>0.92510247300000004</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>576</v>
       </c>
@@ -41053,7 +41053,7 @@
         <v>0.93868119400000005</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>577</v>
       </c>
@@ -41091,7 +41091,7 @@
         <v>0.947429937</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>578</v>
       </c>
@@ -41129,7 +41129,7 @@
         <v>0.95323039399999998</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>579</v>
       </c>
@@ -41167,7 +41167,7 @@
         <v>0.95858173300000005</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>580</v>
       </c>
@@ -41205,7 +41205,7 @@
         <v>0.967139627</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>581</v>
       </c>
@@ -41243,7 +41243,7 @@
         <v>0.98263441100000004</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>582</v>
       </c>
@@ -41281,7 +41281,7 @@
         <v>0.84192500400000003</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>583</v>
       </c>
@@ -41319,7 +41319,7 @@
         <v>0.89172450000000003</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>584</v>
       </c>
@@ -41357,7 +41357,7 @@
         <v>0.92483143899999998</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>585</v>
       </c>
@@ -41395,7 +41395,7 @@
         <v>0.94327669599999997</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>586</v>
       </c>
@@ -41433,7 +41433,7 @@
         <v>0.95720626099999995</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>587</v>
       </c>
@@ -41471,7 +41471,7 @@
         <v>0.96432669900000001</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>588</v>
       </c>
@@ -41509,7 +41509,7 @@
         <v>0.97001654800000003</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>589</v>
       </c>
@@ -41547,7 +41547,7 @@
         <v>0.97956193300000005</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>590</v>
       </c>
@@ -41585,7 +41585,7 @@
         <v>0.99023604300000001</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>591</v>
       </c>
@@ -41623,7 +41623,7 @@
         <v>0.86521180399999997</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>592</v>
       </c>
@@ -41661,7 +41661,7 @@
         <v>0.90900401099999995</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>593</v>
       </c>
@@ -41699,7 +41699,7 @@
         <v>0.93006460000000002</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>594</v>
       </c>
@@ -41737,7 +41737,7 @@
         <v>0.94766002199999999</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>595</v>
       </c>
@@ -41775,7 +41775,7 @@
         <v>0.959154964</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>596</v>
       </c>
@@ -41813,7 +41813,7 @@
         <v>0.96573204899999998</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>597</v>
       </c>
@@ -41851,7 +41851,7 @@
         <v>0.97096217500000004</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>598</v>
       </c>
@@ -41889,7 +41889,7 @@
         <v>0.97923214199999997</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>599</v>
       </c>
@@ -41927,7 +41927,7 @@
         <v>0.98797745400000003</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>600</v>
       </c>
@@ -41965,7 +41965,7 @@
         <v>0.88326797400000001</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>601</v>
       </c>
@@ -42003,7 +42003,7 @@
         <v>0.91329766000000001</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>602</v>
       </c>
@@ -42041,7 +42041,7 @@
         <v>0.93396243599999995</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>603</v>
       </c>
@@ -42079,7 +42079,7 @@
         <v>0.94424632399999997</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>604</v>
       </c>
@@ -42117,7 +42117,7 @@
         <v>0.95256922200000005</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>605</v>
       </c>
@@ -42155,7 +42155,7 @@
         <v>0.96141120599999996</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>606</v>
       </c>
@@ -42193,7 +42193,7 @@
         <v>0.96769704300000003</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>607</v>
       </c>
@@ -42231,7 +42231,7 @@
         <v>0.97842693700000005</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>608</v>
       </c>
@@ -42269,7 +42269,7 @@
         <v>0.98989226900000005</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>609</v>
       </c>
@@ -42307,7 +42307,7 @@
         <v>0.85381284099999999</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>610</v>
       </c>
@@ -42345,7 +42345,7 @@
         <v>0.89835938599999998</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>611</v>
       </c>
@@ -42383,7 +42383,7 @@
         <v>0.92367672899999997</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>612</v>
       </c>
@@ -42421,7 +42421,7 @@
         <v>0.94050324299999999</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>613</v>
       </c>
@@ -42459,7 +42459,7 @@
         <v>0.953850105</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>614</v>
       </c>
@@ -42497,7 +42497,7 @@
         <v>0.96232512400000003</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>615</v>
       </c>
@@ -42535,7 +42535,7 @@
         <v>0.96801223800000002</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>616</v>
       </c>
@@ -42573,7 +42573,7 @@
         <v>0.97987032500000004</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>617</v>
       </c>
@@ -42611,7 +42611,7 @@
         <v>0.99209860999999999</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>618</v>
       </c>
@@ -42649,7 +42649,7 @@
         <v>0.85782433000000002</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>619</v>
       </c>
@@ -42687,7 +42687,7 @@
         <v>0.90038555499999995</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>620</v>
       </c>
@@ -42725,7 +42725,7 @@
         <v>0.92760187599999999</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>621</v>
       </c>
@@ -42763,7 +42763,7 @@
         <v>0.94288605000000003</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>622</v>
       </c>
@@ -42801,7 +42801,7 @@
         <v>0.953160232</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>623</v>
       </c>
@@ -42839,7 +42839,7 @@
         <v>0.95959235499999995</v>
       </c>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>624</v>
       </c>
@@ -42877,7 +42877,7 @@
         <v>0.96664521199999998</v>
       </c>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>625</v>
       </c>
@@ -42915,7 +42915,7 @@
         <v>0.97827589699999995</v>
       </c>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>626</v>
       </c>
@@ -42963,24 +42963,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D93DC10-605C-4AEC-AC0D-020152B3727F}">
   <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="G11" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+    <sheetView tabSelected="1" topLeftCell="G11" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -42988,7 +42988,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -42996,7 +42996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -43004,7 +43004,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -43012,12 +43012,12 @@
         <v>711</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -43034,7 +43034,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>709</v>
       </c>
@@ -43057,7 +43057,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -43086,7 +43086,7 @@
         <v>81227.777777777781</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>20</v>
       </c>
@@ -43115,7 +43115,7 @@
         <v>135738.77777777778</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>30</v>
       </c>
@@ -43144,7 +43144,7 @@
         <v>188575.11111111112</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>40</v>
       </c>
@@ -43173,7 +43173,7 @@
         <v>245931.22222222222</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>50</v>
       </c>
@@ -43202,7 +43202,7 @@
         <v>309933.77777777775</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>60</v>
       </c>
@@ -43231,7 +43231,7 @@
         <v>389326.33333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>70</v>
       </c>
@@ -43260,7 +43260,7 @@
         <v>470991.22222222225</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>80</v>
       </c>
@@ -43289,7 +43289,7 @@
         <v>606902.4444444445</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>90</v>
       </c>
@@ -43318,7 +43318,7 @@
         <v>1017279.4444444445</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>710</v>
       </c>
@@ -43357,26 +43357,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9CA198-4616-D447-86A2-E1A86C4CDBC4}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -43384,7 +43384,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -43392,7 +43392,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -43400,7 +43400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -43408,12 +43408,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -43430,7 +43430,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>709</v>
       </c>
@@ -43453,7 +43453,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -43476,7 +43476,7 @@
         <v>4903794.666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -43505,7 +43505,7 @@
         <v>3017913.888888889</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -43534,7 +43534,7 @@
         <v>3007913.3333333335</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -43563,7 +43563,7 @@
         <v>2982407.888888889</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -43592,7 +43592,7 @@
         <v>3005846.222222222</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -43621,7 +43621,7 @@
         <v>2988111.6666666665</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -43650,7 +43650,7 @@
         <v>2963178.888888889</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>7</v>
       </c>
@@ -43679,7 +43679,7 @@
         <v>2955472.222222222</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>8</v>
       </c>
@@ -43708,7 +43708,7 @@
         <v>2947898.111111111</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>9</v>
       </c>
@@ -43737,7 +43737,7 @@
         <v>2945858.6666666665</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>710</v>
       </c>
@@ -43770,16 +43770,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF64DF71-3845-B44D-B6A3-C21C1A90C26C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/images/TABELE I WYKRESY.xlsx
+++ b/images/TABELE I WYKRESY.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433978B8-9CD5-411D-8580-5D8A762CC505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B10DAF-25E6-4663-AA6F-5C74D2A4BCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-18510" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-18510" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5390" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5390" uniqueCount="737">
   <si>
     <t>Nazwa pliku</t>
   </si>
@@ -2227,16 +2227,7 @@
     <t>Average of LCP</t>
   </si>
   <si>
-    <t>Total Average of SI</t>
-  </si>
-  <si>
     <t>Average of SI</t>
-  </si>
-  <si>
-    <t>Total Sum of page weight [KB]</t>
-  </si>
-  <si>
-    <t>Sum of page weight [KB]</t>
   </si>
   <si>
     <t>Rozmiar pliku (kB)</t>
@@ -2258,6 +2249,9 @@
   </si>
   <si>
     <t>Average of TTFB</t>
+  </si>
+  <si>
+    <t>Average of SSIM</t>
   </si>
 </sst>
 </file>
@@ -2300,10 +2294,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4547,7 +4541,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:srgbClr val="00B050"/>
+              <a:srgbClr val="0070C0"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4603,7 +4597,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:srgbClr val="0070C0"/>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -5880,7 +5874,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5984,7 +5978,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -11311,6 +11305,74 @@
     <c:fmtId val="7"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Indeks</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> szybkości oraz SSIM dla wybranych formatów z kompresją stratną</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45946186889328994"/>
+          <c:y val="3.3334874115301553E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -15121,11 +15183,11 @@
       <c:pivotFmt>
         <c:idx val="62"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -15177,11 +15239,11 @@
       <c:pivotFmt>
         <c:idx val="63"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -15233,11 +15295,11 @@
       <c:pivotFmt>
         <c:idx val="64"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -15454,6 +15516,286 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="68"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="69"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="70"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="71"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="72"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -15462,9 +15804,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.3310535088223462E-2"/>
-          <c:y val="3.39943342776204E-2"/>
-          <c:w val="0.82647953905396865"/>
-          <c:h val="0.90312105462737835"/>
+          <c:y val="0.10041101764825162"/>
+          <c:w val="0.87424032730423284"/>
+          <c:h val="0.72536837572260282"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -15472,15 +15814,129 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SI vs SSIM lossy'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of SI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'SI vs SSIM lossy'!$A$7:$A$19</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>avif</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>jpg</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>webp</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>avif</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>jpg</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>webp</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>avif</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>jpg</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>webp</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>90</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SI vs SSIM lossy'!$B$7:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.2906666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8486666666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4373333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8196666666666665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7736666666666663</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8006666666666664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2586666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A756-48A5-A1A7-8DCA3AFE3856}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SI vs SSIM lossy'!$C$6:$C$7</c:f>
+              <c:f>'SI vs SSIM lossy'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>avif - Sum of page weight [KB]</c:v>
+                  <c:v>Average of SSIM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15496,36 +15952,85 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'SI vs SSIM lossy'!$A$8:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'SI vs SSIM lossy'!$A$7:$A$19</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>avif</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>jpg</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>webp</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>avif</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>jpg</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>webp</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>avif</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>jpg</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>webp</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>90</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SI vs SSIM lossy'!$C$8:$C$11</c:f>
+              <c:f>'SI vs SSIM lossy'!$C$7:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>304</c:v>
+                  <c:v>0.73089258533333323</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>730</c:v>
+                  <c:v>0.8170753336666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3413</c:v>
+                  <c:v>0.84078856533333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9175661323333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92852377699999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92442085866666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99273086066666671</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98215243066666658</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9861165116666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15533,136 +16038,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A756-48A5-A1A7-8DCA3AFE3856}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'SI vs SSIM lossy'!$E$6:$E$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>jpg - Sum of page weight [KB]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'SI vs SSIM lossy'!$A$8:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SI vs SSIM lossy'!$E$8:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1044</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2171</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7006</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-A756-48A5-A1A7-8DCA3AFE3856}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'SI vs SSIM lossy'!$G$6:$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>webp - Sum of page weight [KB]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'SI vs SSIM lossy'!$A$8:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SI vs SSIM lossy'!$G$8:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>569</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>979</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2716</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-A756-48A5-A1A7-8DCA3AFE3856}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15678,226 +16053,6 @@
         <c:axId val="1689027392"/>
         <c:axId val="1689029120"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'SI vs SSIM lossy'!$B$6:$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>avif - Average of SI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'SI vs SSIM lossy'!$A$8:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SI vs SSIM lossy'!$B$8:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.2906666666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8486666666666665</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.7736666666666663</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A756-48A5-A1A7-8DCA3AFE3856}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'SI vs SSIM lossy'!$D$6:$D$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>jpg - Average of SI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'SI vs SSIM lossy'!$A$8:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SI vs SSIM lossy'!$D$8:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.2840000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4373333333333331</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8006666666666664</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A756-48A5-A1A7-8DCA3AFE3856}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'SI vs SSIM lossy'!$F$6:$F$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>webp - Average of SI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'SI vs SSIM lossy'!$A$8:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SI vs SSIM lossy'!$F$8:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.5230000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8196666666666665</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2586666666666666</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-A756-48A5-A1A7-8DCA3AFE3856}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1232139423"/>
-        <c:axId val="1232138463"/>
-      </c:lineChart>
       <c:catAx>
         <c:axId val="1689027392"/>
         <c:scaling>
@@ -15905,6 +16060,76 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Poziom zachowanej jakości przy kompresji stratnej dla wybranych formatów</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -15970,6 +16195,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [sekundy]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -16005,66 +16286,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="1232138463"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1232139423"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="1232139423"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1232138463"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -16074,7 +16295,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.8098000135290126E-2"/>
+          <c:y val="0.89248094243310006"/>
+          <c:w val="0.20613410846646332"/>
+          <c:h val="6.1187795486445269E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18476,16 +18707,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>346076</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>53974</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>260351</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>92073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -46511,8 +46742,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5416CCF-B5D8-435E-8721-BCBDF798EFD0}" name="Tabela przestawna3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="A6:I11" firstHeaderRow="0" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5416CCF-B5D8-435E-8721-BCBDF798EFD0}" name="Tabela przestawna3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="A6:C19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="23">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
@@ -46523,7 +46754,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="5">
         <item x="0"/>
         <item x="1"/>
@@ -46572,7 +46803,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -46625,56 +46856,62 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="5"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="13">
     <i>
       <x/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
     <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x v="3"/>
     </i>
     <i>
       <x v="8"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="2">
-    <field x="2"/>
+  <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="8">
+  <colItems count="2">
     <i>
       <x/>
-      <x/>
     </i>
-    <i r="1" i="1">
+    <i i="1">
       <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
     </i>
   </colItems>
   <pageFields count="3">
@@ -46684,9 +46921,9 @@
   </pageFields>
   <dataFields count="2">
     <dataField name="Average of SI" fld="18" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Sum of page weight [KB]" fld="22" baseField="0" baseItem="0"/>
+    <dataField name="Average of SSIM" fld="10" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="6">
+  <chartFormats count="8">
     <chartFormat chart="7" format="62" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -46723,7 +46960,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="65" series="1">
+    <chartFormat chart="7" format="68" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -46735,7 +46972,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="66" series="1">
+    <chartFormat chart="7" format="69" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -46747,7 +46984,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="67" series="1">
+    <chartFormat chart="7" format="70" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -46755,6 +46992,24 @@
           </reference>
           <reference field="2" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="71" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="72" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -47146,7 +47401,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -79666,7 +79921,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -79680,33 +79935,33 @@
         <v>545</v>
       </c>
       <c r="H7" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="I7" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B8" t="s">
         <v>708</v>
       </c>
       <c r="C8" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D8" t="s">
         <v>708</v>
       </c>
       <c r="E8" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F8" t="s">
         <v>708</v>
       </c>
       <c r="G8" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -80034,7 +80289,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView topLeftCell="B15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -80088,7 +80343,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -80102,33 +80357,33 @@
         <v>545</v>
       </c>
       <c r="H8" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="I8" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B9" t="s">
         <v>708</v>
       </c>
       <c r="C9" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D9" t="s">
         <v>708</v>
       </c>
       <c r="E9" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F9" t="s">
         <v>708</v>
       </c>
       <c r="G9" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -80431,8 +80686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB67F0C3-0C97-4B4C-985B-ACC8E7DB8E72}">
   <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -80493,10 +80748,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C6" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D6" t="s">
         <v>726</v>
@@ -80509,67 +80764,67 @@
       <c r="A7" s="2">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>2.3454166666666665</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>0.68091666666666673</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>1.4881666666666666</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <v>2.7463333333333328</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>2.2906666666666666</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>0.68033333333333335</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>1.5006666666666666</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>2.5413333333333332</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>2.2840000000000003</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>0.68299999999999994</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>1.4901666666666669</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <v>2.7954999999999992</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>2.5230000000000001</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>0.67733333333333334</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>1.4716666666666667</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10">
         <v>2.8529999999999998</v>
       </c>
     </row>
@@ -80577,67 +80832,67 @@
       <c r="A11" s="2">
         <v>40</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>2.6357500000000003</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>0.67833333333333334</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>1.5089999999999997</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11">
         <v>3.6188333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>2.8486666666666665</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>0.67533333333333323</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>1.5099999999999998</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12">
         <v>3.2216666666666671</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>2.4373333333333331</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>0.68200000000000005</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>1.5008333333333332</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13">
         <v>3.8281666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>2.8196666666666665</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>0.67400000000000004</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>1.5243333333333335</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14">
         <v>3.5973333333333333</v>
       </c>
     </row>
@@ -80645,67 +80900,67 @@
       <c r="A15" s="2">
         <v>90</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>3.9084166666666662</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>0.67641666666666656</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>1.4801666666666666</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15">
         <v>7.8294166666666669</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>6.7736666666666663</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16">
         <v>0.67333333333333334</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>1.478</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16">
         <v>8.2149999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>2.8006666666666664</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>0.67683333333333329</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <v>1.4881666666666666</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17">
         <v>8.1769999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>3.2586666666666666</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
         <v>0.67866666666666664</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
         <v>1.4663333333333333</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18">
         <v>6.7486666666666677</v>
       </c>
     </row>
@@ -80713,16 +80968,16 @@
       <c r="A19" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>2.9631944444444449</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19">
         <v>0.67855555555555547</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19">
         <v>1.4924444444444447</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19">
         <v>4.731527777777778</v>
       </c>
     </row>
@@ -80734,23 +80989,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81088A7C-07B7-4242-BD11-E33C48031F2F}">
-  <dimension ref="A2:I11"/>
+  <dimension ref="A2:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -80773,7 +81028,7 @@
     <col min="29" max="29" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -80781,7 +81036,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -80789,7 +81044,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -80797,157 +81052,155 @@
         <v>725</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>728</v>
+      </c>
+      <c r="C6" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2.3454166666666665</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.80145795450000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B8" s="5">
+        <v>2.2906666666666666</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.73089258533333323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B9" s="5">
+        <v>2.2840000000000003</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.8170753336666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="H6" t="s">
-        <v>728</v>
-      </c>
-      <c r="I6" t="s">
-        <v>730</v>
+      <c r="B10" s="5">
+        <v>2.5230000000000001</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.84078856533333335</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C7" t="s">
-        <v>731</v>
-      </c>
-      <c r="D7" t="s">
-        <v>729</v>
-      </c>
-      <c r="E7" t="s">
-        <v>731</v>
-      </c>
-      <c r="F7" t="s">
-        <v>729</v>
-      </c>
-      <c r="G7" t="s">
-        <v>731</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>40</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2.6357500000000003</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.92475863624999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>2.2906666666666666</v>
-      </c>
-      <c r="C8">
-        <v>304</v>
-      </c>
-      <c r="D8">
-        <v>2.2840000000000003</v>
-      </c>
-      <c r="E8">
-        <v>1044</v>
-      </c>
-      <c r="F8">
-        <v>2.5230000000000001</v>
-      </c>
-      <c r="G8">
-        <v>569</v>
-      </c>
-      <c r="H8">
-        <v>2.3454166666666665</v>
-      </c>
-      <c r="I8">
-        <v>1917</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2.8486666666666665</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.9175661323333334</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>40</v>
-      </c>
-      <c r="B9">
-        <v>2.8486666666666665</v>
-      </c>
-      <c r="C9">
-        <v>730</v>
-      </c>
-      <c r="D9">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="5">
         <v>2.4373333333333331</v>
       </c>
-      <c r="E9">
-        <v>2171</v>
-      </c>
-      <c r="F9">
+      <c r="C13" s="5">
+        <v>0.92852377699999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B14" s="5">
         <v>2.8196666666666665</v>
       </c>
-      <c r="G9">
-        <v>979</v>
-      </c>
-      <c r="H9">
-        <v>2.6357500000000003</v>
-      </c>
-      <c r="I9">
-        <v>3880</v>
+      <c r="C14" s="5">
+        <v>0.92442085866666668</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>90</v>
       </c>
-      <c r="B10">
+      <c r="B15" s="5">
+        <v>3.9084166666666662</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.98578805841666661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
         <v>6.7736666666666663</v>
       </c>
-      <c r="C10">
-        <v>3413</v>
-      </c>
-      <c r="D10">
+      <c r="C16" s="5">
+        <v>0.99273086066666671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="5">
         <v>2.8006666666666664</v>
       </c>
-      <c r="E10">
-        <v>7006</v>
-      </c>
-      <c r="F10">
+      <c r="C17" s="5">
+        <v>0.98215243066666658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B18" s="5">
         <v>3.2586666666666666</v>
       </c>
-      <c r="G10">
-        <v>2716</v>
-      </c>
-      <c r="H10">
-        <v>3.9084166666666662</v>
-      </c>
-      <c r="I10">
-        <v>13135</v>
+      <c r="C18" s="5">
+        <v>0.9861165116666667</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="B11">
-        <v>3.9709999999999996</v>
-      </c>
-      <c r="C11">
-        <v>4447</v>
-      </c>
-      <c r="D11">
-        <v>2.5073333333333334</v>
-      </c>
-      <c r="E11">
-        <v>10221</v>
-      </c>
-      <c r="F11">
-        <v>2.8671111111111109</v>
-      </c>
-      <c r="G11">
-        <v>4264</v>
-      </c>
-      <c r="H11">
-        <v>2.9631944444444445</v>
-      </c>
-      <c r="I11">
-        <v>18932</v>
+      <c r="B19" s="5">
+        <v>2.9631944444444449</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.90400154972222246</v>
       </c>
     </row>
   </sheetData>
